--- a/doc/χ12の算出.xlsx
+++ b/doc/χ12の算出.xlsx
@@ -1,23 +1,60 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a1054166\OneDrive - 旭化成株式会社\lib\python\lib\ternary_system\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hrmtt\Desktop\ternary_system\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07B3E0FF-FBD7-4B0F-A782-9B10A06F696A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABCD96AB-E51E-4D11-8450-DF42DD3CD12D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1151A338-1D02-469A-85A0-787DF47D6196}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="2" xr2:uid="{1151A338-1D02-469A-85A0-787DF47D6196}"/>
   </bookViews>
   <sheets>
     <sheet name="過剰混合ギブズエネルギー" sheetId="1" r:id="rId1"/>
-    <sheet name="g12" sheetId="2" r:id="rId2"/>
+    <sheet name="g12多項式近似" sheetId="2" r:id="rId2"/>
+    <sheet name="g12Wei方式近似" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">過剰混合ギブズエネルギー!$A$1:$D$1</definedName>
+    <definedName name="solver_adj" localSheetId="2" hidden="1">g12Wei方式近似!$M$23:$M$25</definedName>
+    <definedName name="solver_cvg" localSheetId="2" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_itr" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_lhs1" localSheetId="2" hidden="1">g12Wei方式近似!$F$24</definedName>
+    <definedName name="solver_lhs2" localSheetId="2" hidden="1">g12Wei方式近似!$F$25</definedName>
+    <definedName name="solver_lhs3" localSheetId="2" hidden="1">g12Wei方式近似!$F$25</definedName>
+    <definedName name="solver_mip" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="2" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="2" hidden="1">0.075</definedName>
+    <definedName name="solver_msl" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_nod" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_num" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_nwt" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="2" hidden="1">g12Wei方式近似!$M$27</definedName>
+    <definedName name="solver_pre" localSheetId="2" hidden="1">0.000001</definedName>
+    <definedName name="solver_rbv" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="2" hidden="1">3</definedName>
+    <definedName name="solver_rel2" localSheetId="2" hidden="1">3</definedName>
+    <definedName name="solver_rel3" localSheetId="2" hidden="1">3</definedName>
+    <definedName name="solver_rhs1" localSheetId="2" hidden="1">-100</definedName>
+    <definedName name="solver_rhs2" localSheetId="2" hidden="1">-100</definedName>
+    <definedName name="solver_rhs3" localSheetId="2" hidden="1">-100</definedName>
+    <definedName name="solver_rlx" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_rsd" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_sho" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_ssz" localSheetId="2" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="2" hidden="1">100</definedName>
+    <definedName name="solver_tol" localSheetId="2" hidden="1">0.01</definedName>
+    <definedName name="solver_typ" localSheetId="2" hidden="1">3</definedName>
+    <definedName name="solver_val" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="2" hidden="1">3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,8 +68,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -62,7 +97,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="57">
   <si>
     <t>温度 [K]</t>
     <phoneticPr fontId="1"/>
@@ -288,16 +323,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>近似式の再現</t>
-    <rPh sb="0" eb="3">
-      <t>キンジシキ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>サイゲン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>4次多項式近似準備</t>
     <rPh sb="1" eb="2">
       <t>ジ</t>
@@ -329,18 +354,126 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>308 フィッティング結果</t>
-    <rPh sb="11" eb="13">
+    <t>g12 (298K)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>g12 (308K)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4次近似式の再現</t>
+    <rPh sb="1" eb="2">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>キンジシキ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>サイゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3次多項式近似準備</t>
+    <rPh sb="1" eb="2">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>タコウシキ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>キンジ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジュンビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>308K フィッティング結果</t>
+    <rPh sb="12" eb="14">
       <t>ケッカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>g12 (298K)</t>
+    <t>3次近似式の再現</t>
+    <rPh sb="1" eb="2">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>キンジシキ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>サイゲン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>g12 (308K)</t>
+    <t>変数の意味</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>イミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変数</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>値</t>
+    <rPh sb="0" eb="1">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>単位</t>
+    <rPh sb="0" eb="2">
+      <t>タンイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">298K フィッティング </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>α</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>β</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>γ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>φ2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>g12</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>残差^2</t>
+    <rPh sb="0" eb="2">
+      <t>ザンサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MSE*1000</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -392,12 +525,92 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -406,7 +619,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -417,6 +630,45 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1099,9 +1351,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.22026657495838498"/>
+          <c:x val="0.159424577890285"/>
           <c:y val="5.227797842822126E-2"/>
-          <c:w val="0.71178475302052213"/>
+          <c:w val="0.54142701923758674"/>
           <c:h val="0.67410261189437071"/>
         </c:manualLayout>
       </c:layout>
@@ -1138,7 +1390,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'g12'!$C$2:$C$11</c:f>
+              <c:f>g12多項式近似!$C$2:$C$11</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1177,7 +1429,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'g12'!$H$2:$H$11</c:f>
+              <c:f>g12多項式近似!$H$2:$H$11</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1251,7 +1503,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'g12'!$C$12:$C$20</c:f>
+              <c:f>g12多項式近似!$C$12:$C$20</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1287,7 +1539,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'g12'!$H$12:$H$20</c:f>
+              <c:f>g12多項式近似!$H$12:$H$20</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1332,7 +1584,7 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>298近似</c:v>
+            <c:v>298近似(4次)</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="12700" cap="rnd">
@@ -1349,7 +1601,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'g12'!$A$47:$A$67</c:f>
+              <c:f>g12多項式近似!$K$47:$K$67</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="21"/>
@@ -1421,7 +1673,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'g12'!$B$47:$B$67</c:f>
+              <c:f>g12多項式近似!$L$47:$L$67</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="21"/>
@@ -1502,7 +1754,7 @@
           <c:idx val="3"/>
           <c:order val="3"/>
           <c:tx>
-            <c:v>308近似</c:v>
+            <c:v>308近似(4次)</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="12700" cap="rnd">
@@ -1519,7 +1771,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'g12'!$A$47:$A$67</c:f>
+              <c:f>g12多項式近似!$K$47:$K$67</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="21"/>
@@ -1591,7 +1843,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'g12'!$C$47:$C$67</c:f>
+              <c:f>g12多項式近似!$M$47:$M$67</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="21"/>
@@ -1665,6 +1917,346 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-70AA-4AE4-AA7A-C28B8EBDAF78}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>298近似(3次)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>g12多項式近似!$A$47:$A$67</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>g12多項式近似!$B$47:$B$67</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>-1.2086276879058564</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.3255967863214211</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.4120771516167678</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.4690507450545276</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.498154168739086</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.5016786656165824</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1.4825701194749104</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.4444290549437173</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.391510637494406</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.328724673440131</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1.2616356099358041</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1.196462534978088</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-1.140079177405402</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-1.1000139068979187</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-1.0844497339775636</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-1.1022243100080191</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-1.1628299271947189</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-1.2764135185848522</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-1.4537766580673623</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-1.706375560372948</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-2.0463210810740584</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0216-4FEE-8CC6-FC3FDE453FB4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>308近似(3次)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>g12多項式近似!$A$47:$A$67</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>g12多項式近似!$C$47:$C$67</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>-0.94928818695449713</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.1139760472790725</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.2323611876845952</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.3058992134393668</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.3370161333238892</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.3291083596308655</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1.286542708165199</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.2146563982439951</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.1197570526965583</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.0091226978643961</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.8910017636012153</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.774613083272923</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.67014589375762845</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.58875983544564159</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.54258495223947389</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.54472169155383465</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.60924090431563727</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.75118384496399493</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.9865621714502204</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-1.3323579452378311</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-1.8065236313025386</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0216-4FEE-8CC6-FC3FDE453FB4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1744,7 +2336,7 @@
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="-25000"/>
-                  <a:t>2</a:t>
+                  <a:t>1</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" altLang="ja-JP" sz="1400"/>
@@ -1981,10 +2573,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.23015840253654857"/>
-          <c:y val="7.4307742782152256E-2"/>
-          <c:w val="0.22478414006326949"/>
-          <c:h val="0.1424700987856643"/>
+          <c:x val="0.71743474569937704"/>
+          <c:y val="0.41359357424071991"/>
+          <c:w val="0.27870738900397246"/>
+          <c:h val="0.3121129780652418"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2000,7 +2592,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2038,6 +2630,984 @@
           <a:lumOff val="85000"/>
         </a:schemeClr>
       </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.159424577890285"/>
+          <c:y val="5.227797842822126E-2"/>
+          <c:w val="0.54142701923758674"/>
+          <c:h val="0.67410261189437071"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>298K</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>g12Wei方式近似!$C$2:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2.0357742859966395E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.4668240736279084E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.4206502741718167E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1108619607139654</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.15755927594119148</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.21907988025838979</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.27521618621592697</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.30381347004705389</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.42795314213168678</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.62731681642167003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>g12Wei方式近似!$H$2:$H$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>-1.2913766714255368</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.2682632921583279</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.3526195120999391</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.4514506205618123</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.5278075302222651</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.5711368963773451</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1.466979086078777</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.5866128909409316</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.5737934726088458</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.5140103131496225</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0044-41F4-97F4-FDB48BE7F155}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>308K</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>g12Wei方式近似!$C$12:$C$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2.0357742859966395E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.4668240736279084E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.4206502741718167E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1108619607139654</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.15755927594119148</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.21907988025838979</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.30381347004705389</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.42795314213168678</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.62731681642167003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>g12Wei方式近似!$H$12:$H$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>-0.99583285786358167</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.1195466118006885</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.1964851691771323</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.262633231573862</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.3279221123422738</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.3820689432890265</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1.4035408629153976</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.3581321650903104</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.2154940293363214</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0044-41F4-97F4-FDB48BE7F155}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>298近似</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>g12Wei方式近似!$A$36:$A$56</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>g12Wei方式近似!$B$36:$B$56</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>-1.4152869051335133</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.4212971870249824</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.4279679394539757</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.4354143607700611</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.4437800933597373</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.4532465802375287</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1.4640463751262769</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.4764825025739261</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.4909573394392228</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.508016968601894</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1.5284216230905789</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1.5532620720333261</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-1.58416116705967</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-1.623643344037776</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-1.6758617071378517</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-1.7481640560456491</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-1.8548960949095401</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-2.0283356580633631</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-2.3594475513570252</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-3.2424126001401228</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-12.955028136754212</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0044-41F4-97F4-FDB48BE7F155}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>308近似</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>g12Wei方式近似!$H$36:$H$56</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>g12Wei方式近似!$I$36:$I$56</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>-1.1875148524145134</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.2018171497734178</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.2161661180800989</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.2305619861513337</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.245004984302132</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.259495344358009</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1.2740332996673986</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.2886190851141786</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.3032529371303125</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.3179350937086314</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1.3326657944157363</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1.347445280405025</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-1.3622737944298509</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-1.3771515808568244</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-1.3920788856792177</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-1.4070559565305425</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-1.4220830426982252</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-1.4371603951374547</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-1.4522882664851418</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-1.4674669110740348</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-1.4826965849469724</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-0044-41F4-97F4-FDB48BE7F155}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="717269808"/>
+        <c:axId val="717271120"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="717269808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US" sz="1400"/>
+                  <a:t>水の体積分率 </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="1400" i="1"/>
+                  <a:t>φ</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="-25000"/>
+                  <a:t>1</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="1400"/>
+                  <a:t>[-]</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1400"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="717271120"/>
+        <c:crossesAt val="-3000"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="0.2"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="717271120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0"/>
+          <c:min val="-3"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="1400" i="1" baseline="0"/>
+                  <a:t>g</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="1400" i="0" baseline="-25000"/>
+                  <a:t>12</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="1400" baseline="0"/>
+                  <a:t> [-]</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1400"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="717269808"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="0.4"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.71743474569937704"/>
+          <c:y val="0.41359357424071991"/>
+          <c:w val="0.27870738900397246"/>
+          <c:h val="0.3121129780652418"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -2101,6 +3671,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3172,6 +4782,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
@@ -3350,16 +5476,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>748030</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>43180</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>8890</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>180340</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3386,6 +5512,390 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3741420" cy="1362552"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="テキスト ボックス 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7D0B12C-DD0F-C628-3735-595588C89CBE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6918960" y="1988820"/>
+          <a:ext cx="3741420" cy="1362552"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
+            <a:t>フィッティング結果</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+            <a:t>4</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
+            <a:t>次多項式では</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+            <a:t>φ2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
+            <a:t>が大きい部分で乖離が大きくなる</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" baseline="0"/>
+            <a:t>  → </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" baseline="0"/>
+            <a:t>φ2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" baseline="0"/>
+            <a:t>が大きい部分でもう少しデータがあれば良いが</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" baseline="0"/>
+            <a:t>　　  分子量の違いから難しい</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" baseline="0"/>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" baseline="0"/>
+            <a:t>3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" baseline="0"/>
+            <a:t>次多項式では全域で乖離が大きい</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>115570</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>81280</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>678180</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3A4EC73-103E-442F-9B50-09FD094E0F95}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3741420" cy="475387"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="テキスト ボックス 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68FD7373-C908-4472-8630-1E89B7772DAD}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6918960" y="1988820"/>
+              <a:ext cx="3741420" cy="475387"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:ln w="19050">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑔</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝛼</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>+</m:t>
+                    </m:r>
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝛽</m:t>
+                        </m:r>
+                      </m:num>
+                      <m:den>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>1−</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝛾</m:t>
+                        </m:r>
+                        <m:sSub>
+                          <m:sSubPr>
+                            <m:ctrlPr>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSubPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝜙</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>2</m:t>
+                            </m:r>
+                          </m:sub>
+                        </m:sSub>
+                      </m:den>
+                    </m:f>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="テキスト ボックス 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68FD7373-C908-4472-8630-1E89B7772DAD}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6918960" y="1988820"/>
+              <a:ext cx="3741420" cy="475387"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:ln w="19050">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑔=𝛼+𝛽/(1−𝛾𝜙_2 )</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3594,13 +6104,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14248C47-629A-46C2-A5A6-036A94272DA3}">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="32" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -3614,7 +6124,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>0.9</v>
       </c>
@@ -3629,7 +6139,7 @@
         <v>-519</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>0.8</v>
       </c>
@@ -3644,7 +6154,7 @@
         <v>-992</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>0.7</v>
       </c>
@@ -3659,7 +6169,7 @@
         <v>-1485</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>0.6</v>
       </c>
@@ -3674,7 +6184,7 @@
         <v>-1967</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>0.5</v>
       </c>
@@ -3689,7 +6199,7 @@
         <v>-2380</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>0.4</v>
       </c>
@@ -3704,7 +6214,7 @@
         <v>-2660</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>0.33</v>
       </c>
@@ -3719,7 +6229,7 @@
         <v>-2600</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>0.3</v>
       </c>
@@ -3734,7 +6244,7 @@
         <v>-2739</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>0.2</v>
       </c>
@@ -3749,7 +6259,7 @@
         <v>-2505</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>0.1</v>
       </c>
@@ -3764,7 +6274,7 @@
         <v>-1738</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>0.9</v>
       </c>
@@ -3775,11 +6285,11 @@
         <v>-462000</v>
       </c>
       <c r="D18">
-        <f>C18/1000</f>
+        <f t="shared" ref="D18:D26" si="1">C18/1000</f>
         <v>-462</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>0.8</v>
       </c>
@@ -3790,11 +6300,11 @@
         <v>-952000</v>
       </c>
       <c r="D19">
-        <f>C19/1000</f>
+        <f t="shared" si="1"/>
         <v>-952</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>0.7</v>
       </c>
@@ -3805,11 +6315,11 @@
         <v>-1423000</v>
       </c>
       <c r="D20">
-        <f>C20/1000</f>
+        <f t="shared" si="1"/>
         <v>-1423</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>0.6</v>
       </c>
@@ -3820,11 +6330,11 @@
         <v>-1860000</v>
       </c>
       <c r="D21">
-        <f>C21/1000</f>
+        <f t="shared" si="1"/>
         <v>-1860</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>0.5</v>
       </c>
@@ -3835,11 +6345,11 @@
         <v>-2243000</v>
       </c>
       <c r="D22">
-        <f>C22/1000</f>
+        <f t="shared" si="1"/>
         <v>-2243</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>0.4</v>
       </c>
@@ -3850,11 +6360,11 @@
         <v>-2521000</v>
       </c>
       <c r="D23">
-        <f>C23/1000</f>
+        <f t="shared" si="1"/>
         <v>-2521</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>0.3</v>
       </c>
@@ -3865,11 +6375,11 @@
         <v>-2601000</v>
       </c>
       <c r="D24">
-        <f>C24/1000</f>
+        <f t="shared" si="1"/>
         <v>-2601</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>0.2</v>
       </c>
@@ -3880,11 +6390,11 @@
         <v>-2335000</v>
       </c>
       <c r="D25">
-        <f>C25/1000</f>
+        <f t="shared" si="1"/>
         <v>-2335</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>0.1</v>
       </c>
@@ -3895,7 +6405,7 @@
         <v>-1539000</v>
       </c>
       <c r="D26">
-        <f>C26/1000</f>
+        <f t="shared" si="1"/>
         <v>-1539</v>
       </c>
     </row>
@@ -3909,20 +6419,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{106698BE-2C48-4255-B3E2-B21C1081E345}">
-  <dimension ref="A1:M67"/>
+  <dimension ref="A1:W67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R24" sqref="R24"/>
+    <sheetView showGridLines="0" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47:A67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7265625" customWidth="1"/>
+    <col min="12" max="12" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.90625" customWidth="1"/>
+    <col min="16" max="16" width="9.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -3950,10 +6464,22 @@
       <c r="H1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="J1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L1" t="s">
+        <v>47</v>
+      </c>
+      <c r="M1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
-        <f>1 - B2</f>
+        <f t="shared" ref="A2:A20" si="0">1 - B2</f>
         <v>9.9999999999999978E-2</v>
       </c>
       <c r="B2">
@@ -3961,11 +6487,11 @@
         <v>0.9</v>
       </c>
       <c r="C2" s="3">
-        <f>A2/(A2+1/$L$9*B2)</f>
+        <f t="shared" ref="C2:C20" si="1">A2/(A2+1/$L$9*B2)</f>
         <v>2.0357742859966395E-2</v>
       </c>
       <c r="D2" s="3">
-        <f>B2/($L$9*A2+B2)</f>
+        <f t="shared" ref="D2:D20" si="2">B2/($L$9*A2+B2)</f>
         <v>0.97964225714003361</v>
       </c>
       <c r="E2" s="3">
@@ -3997,9 +6523,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3">
-        <f>1 - B3</f>
+        <f t="shared" si="0"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="B3">
@@ -4007,15 +6533,15 @@
         <v>0.8</v>
       </c>
       <c r="C3" s="3">
-        <f>A3/(A3+1/$L$9*B3)</f>
+        <f t="shared" si="1"/>
         <v>4.4668240736279084E-2</v>
       </c>
       <c r="D3" s="3">
-        <f>B3/($L$9*A3+B3)</f>
+        <f t="shared" si="2"/>
         <v>0.95533175926372083</v>
       </c>
       <c r="E3" s="3">
-        <f t="shared" ref="E3:E20" si="0">SUM(C3:D3)</f>
+        <f t="shared" ref="E3:E20" si="3">SUM(C3:D3)</f>
         <v>0.99999999999999989</v>
       </c>
       <c r="F3">
@@ -4027,7 +6553,7 @@
         <v>-992</v>
       </c>
       <c r="H3" s="3">
-        <f t="shared" ref="H3:H20" si="1">1/(A3*D3)*(A3*LN(A3/C3)+B3*LN(B3/D3)+G3/$L$2/F3)</f>
+        <f t="shared" ref="H3:H20" si="4">1/(A3*D3)*(A3*LN(A3/C3)+B3*LN(B3/D3)+G3/$L$2/F3)</f>
         <v>-1.2682632921583279</v>
       </c>
       <c r="J3" t="s">
@@ -4043,9 +6569,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
-        <f>1 - B4</f>
+        <f t="shared" si="0"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="B4">
@@ -4053,15 +6579,15 @@
         <v>0.7</v>
       </c>
       <c r="C4" s="3">
-        <f>A4/(A4+1/$L$9*B4)</f>
+        <f t="shared" si="1"/>
         <v>7.4206502741718167E-2</v>
       </c>
       <c r="D4" s="3">
-        <f>B4/($L$9*A4+B4)</f>
+        <f t="shared" si="2"/>
         <v>0.92579349725828175</v>
       </c>
       <c r="E4" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.99999999999999989</v>
       </c>
       <c r="F4">
@@ -4073,7 +6599,7 @@
         <v>-1485</v>
       </c>
       <c r="H4" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-1.3526195120999391</v>
       </c>
       <c r="J4" t="s">
@@ -4089,9 +6615,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5">
-        <f>1 - B5</f>
+        <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
       <c r="B5">
@@ -4099,15 +6625,15 @@
         <v>0.6</v>
       </c>
       <c r="C5" s="3">
-        <f>A5/(A5+1/$L$9*B5)</f>
+        <f t="shared" si="1"/>
         <v>0.1108619607139654</v>
       </c>
       <c r="D5" s="3">
-        <f>B5/($L$9*A5+B5)</f>
+        <f t="shared" si="2"/>
         <v>0.88913803928603463</v>
       </c>
       <c r="E5" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F5">
@@ -4119,7 +6645,7 @@
         <v>-1967</v>
       </c>
       <c r="H5" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-1.4514506205618123</v>
       </c>
       <c r="J5" t="s">
@@ -4135,9 +6661,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6">
-        <f>1 - B6</f>
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
       <c r="B6">
@@ -4145,15 +6671,15 @@
         <v>0.5</v>
       </c>
       <c r="C6" s="3">
-        <f>A6/(A6+1/$L$9*B6)</f>
+        <f t="shared" si="1"/>
         <v>0.15755927594119148</v>
       </c>
       <c r="D6" s="3">
-        <f>B6/($L$9*A6+B6)</f>
+        <f t="shared" si="2"/>
         <v>0.84244072405880854</v>
       </c>
       <c r="E6" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F6">
@@ -4165,7 +6691,7 @@
         <v>-2380</v>
       </c>
       <c r="H6" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-1.5278075302222651</v>
       </c>
       <c r="J6" t="s">
@@ -4181,9 +6707,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7">
-        <f>1 - B7</f>
+        <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
       <c r="B7">
@@ -4191,15 +6717,15 @@
         <v>0.4</v>
       </c>
       <c r="C7" s="3">
-        <f>A7/(A7+1/$L$9*B7)</f>
+        <f t="shared" si="1"/>
         <v>0.21907988025838979</v>
       </c>
       <c r="D7" s="3">
-        <f>B7/($L$9*A7+B7)</f>
+        <f t="shared" si="2"/>
         <v>0.78092011974161024</v>
       </c>
       <c r="E7" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F7">
@@ -4211,7 +6737,7 @@
         <v>-2660</v>
       </c>
       <c r="H7" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-1.5711368963773451</v>
       </c>
       <c r="J7" t="s">
@@ -4227,9 +6753,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8">
-        <f>1 - B8</f>
+        <f t="shared" si="0"/>
         <v>0.66999999999999993</v>
       </c>
       <c r="B8">
@@ -4237,15 +6763,15 @@
         <v>0.33</v>
       </c>
       <c r="C8" s="3">
-        <f>A8/(A8+1/$L$9*B8)</f>
+        <f t="shared" si="1"/>
         <v>0.27521618621592697</v>
       </c>
       <c r="D8" s="3">
-        <f>B8/($L$9*A8+B8)</f>
+        <f t="shared" si="2"/>
         <v>0.72478381378407308</v>
       </c>
       <c r="E8" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F8">
@@ -4257,7 +6783,7 @@
         <v>-2600</v>
       </c>
       <c r="H8" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-1.466979086078777</v>
       </c>
       <c r="J8" t="s">
@@ -4274,9 +6800,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9">
-        <f>1 - B9</f>
+        <f t="shared" si="0"/>
         <v>0.7</v>
       </c>
       <c r="B9">
@@ -4284,15 +6810,15 @@
         <v>0.3</v>
       </c>
       <c r="C9" s="3">
-        <f>A9/(A9+1/$L$9*B9)</f>
+        <f t="shared" si="1"/>
         <v>0.30381347004705389</v>
       </c>
       <c r="D9" s="3">
-        <f>B9/($L$9*A9+B9)</f>
+        <f t="shared" si="2"/>
         <v>0.69618652995294616</v>
       </c>
       <c r="E9" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F9">
@@ -4304,7 +6830,7 @@
         <v>-2739</v>
       </c>
       <c r="H9" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-1.5866128909409316</v>
       </c>
       <c r="K9" t="s">
@@ -4318,9 +6844,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10">
-        <f>1 - B10</f>
+        <f t="shared" si="0"/>
         <v>0.8</v>
       </c>
       <c r="B10">
@@ -4328,15 +6854,15 @@
         <v>0.2</v>
       </c>
       <c r="C10" s="3">
-        <f>A10/(A10+1/$L$9*B10)</f>
+        <f t="shared" si="1"/>
         <v>0.42795314213168678</v>
       </c>
       <c r="D10" s="3">
-        <f>B10/($L$9*A10+B10)</f>
+        <f t="shared" si="2"/>
         <v>0.57204685786831322</v>
       </c>
       <c r="E10" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F10">
@@ -4348,13 +6874,13 @@
         <v>-2505</v>
       </c>
       <c r="H10" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-1.5737934726088458</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11">
-        <f>1 - B11</f>
+        <f t="shared" si="0"/>
         <v>0.9</v>
       </c>
       <c r="B11">
@@ -4362,15 +6888,15 @@
         <v>0.1</v>
       </c>
       <c r="C11" s="3">
-        <f>A11/(A11+1/$L$9*B11)</f>
+        <f t="shared" si="1"/>
         <v>0.62731681642167003</v>
       </c>
       <c r="D11" s="3">
-        <f>B11/($L$9*A11+B11)</f>
+        <f t="shared" si="2"/>
         <v>0.37268318357832997</v>
       </c>
       <c r="E11" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F11">
@@ -4382,13 +6908,13 @@
         <v>-1738</v>
       </c>
       <c r="H11" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-1.5140103131496225</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12">
-        <f>1 - B12</f>
+        <f t="shared" si="0"/>
         <v>9.9999999999999978E-2</v>
       </c>
       <c r="B12">
@@ -4396,15 +6922,15 @@
         <v>0.9</v>
       </c>
       <c r="C12" s="3">
-        <f>A12/(A12+1/$L$9*B12)</f>
+        <f t="shared" si="1"/>
         <v>2.0357742859966395E-2</v>
       </c>
       <c r="D12" s="3">
-        <f>B12/($L$9*A12+B12)</f>
+        <f t="shared" si="2"/>
         <v>0.97964225714003361</v>
       </c>
       <c r="E12" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F12">
@@ -4416,13 +6942,13 @@
         <v>-462</v>
       </c>
       <c r="H12" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-0.99583285786358167</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13">
-        <f>1 - B13</f>
+        <f t="shared" si="0"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="B13">
@@ -4430,15 +6956,15 @@
         <v>0.8</v>
       </c>
       <c r="C13" s="3">
-        <f>A13/(A13+1/$L$9*B13)</f>
+        <f t="shared" si="1"/>
         <v>4.4668240736279084E-2</v>
       </c>
       <c r="D13" s="3">
-        <f>B13/($L$9*A13+B13)</f>
+        <f t="shared" si="2"/>
         <v>0.95533175926372083</v>
       </c>
       <c r="E13" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.99999999999999989</v>
       </c>
       <c r="F13">
@@ -4450,13 +6976,13 @@
         <v>-952</v>
       </c>
       <c r="H13" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-1.1195466118006885</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14">
-        <f>1 - B14</f>
+        <f t="shared" si="0"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="B14">
@@ -4464,15 +6990,15 @@
         <v>0.7</v>
       </c>
       <c r="C14" s="3">
-        <f>A14/(A14+1/$L$9*B14)</f>
+        <f t="shared" si="1"/>
         <v>7.4206502741718167E-2</v>
       </c>
       <c r="D14" s="3">
-        <f>B14/($L$9*A14+B14)</f>
+        <f t="shared" si="2"/>
         <v>0.92579349725828175</v>
       </c>
       <c r="E14" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.99999999999999989</v>
       </c>
       <c r="F14">
@@ -4484,13 +7010,13 @@
         <v>-1423</v>
       </c>
       <c r="H14" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-1.1964851691771323</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15">
-        <f>1 - B15</f>
+        <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
       <c r="B15">
@@ -4498,15 +7024,15 @@
         <v>0.6</v>
       </c>
       <c r="C15" s="3">
-        <f>A15/(A15+1/$L$9*B15)</f>
+        <f t="shared" si="1"/>
         <v>0.1108619607139654</v>
       </c>
       <c r="D15" s="3">
-        <f>B15/($L$9*A15+B15)</f>
+        <f t="shared" si="2"/>
         <v>0.88913803928603463</v>
       </c>
       <c r="E15" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F15">
@@ -4518,13 +7044,13 @@
         <v>-1860</v>
       </c>
       <c r="H15" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-1.262633231573862</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16">
-        <f>1 - B16</f>
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
       <c r="B16">
@@ -4532,15 +7058,15 @@
         <v>0.5</v>
       </c>
       <c r="C16" s="3">
-        <f>A16/(A16+1/$L$9*B16)</f>
+        <f t="shared" si="1"/>
         <v>0.15755927594119148</v>
       </c>
       <c r="D16" s="3">
-        <f>B16/($L$9*A16+B16)</f>
+        <f t="shared" si="2"/>
         <v>0.84244072405880854</v>
       </c>
       <c r="E16" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F16">
@@ -4552,13 +7078,13 @@
         <v>-2243</v>
       </c>
       <c r="H16" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-1.3279221123422738</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A17">
-        <f>1 - B17</f>
+        <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
       <c r="B17">
@@ -4566,15 +7092,15 @@
         <v>0.4</v>
       </c>
       <c r="C17" s="3">
-        <f>A17/(A17+1/$L$9*B17)</f>
+        <f t="shared" si="1"/>
         <v>0.21907988025838979</v>
       </c>
       <c r="D17" s="3">
-        <f>B17/($L$9*A17+B17)</f>
+        <f t="shared" si="2"/>
         <v>0.78092011974161024</v>
       </c>
       <c r="E17" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F17">
@@ -4586,13 +7112,13 @@
         <v>-2521</v>
       </c>
       <c r="H17" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-1.3820689432890265</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A18">
-        <f>1 - B18</f>
+        <f t="shared" si="0"/>
         <v>0.7</v>
       </c>
       <c r="B18">
@@ -4600,15 +7126,15 @@
         <v>0.3</v>
       </c>
       <c r="C18" s="3">
-        <f>A18/(A18+1/$L$9*B18)</f>
+        <f t="shared" si="1"/>
         <v>0.30381347004705389</v>
       </c>
       <c r="D18" s="3">
-        <f>B18/($L$9*A18+B18)</f>
+        <f t="shared" si="2"/>
         <v>0.69618652995294616</v>
       </c>
       <c r="E18" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F18">
@@ -4620,13 +7146,13 @@
         <v>-2601</v>
       </c>
       <c r="H18" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-1.4035408629153976</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A19">
-        <f>1 - B19</f>
+        <f t="shared" si="0"/>
         <v>0.8</v>
       </c>
       <c r="B19">
@@ -4634,15 +7160,15 @@
         <v>0.2</v>
       </c>
       <c r="C19" s="3">
-        <f>A19/(A19+1/$L$9*B19)</f>
+        <f t="shared" si="1"/>
         <v>0.42795314213168678</v>
       </c>
       <c r="D19" s="3">
-        <f>B19/($L$9*A19+B19)</f>
+        <f t="shared" si="2"/>
         <v>0.57204685786831322</v>
       </c>
       <c r="E19" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F19">
@@ -4654,13 +7180,13 @@
         <v>-2335</v>
       </c>
       <c r="H19" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-1.3581321650903104</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A20">
-        <f>1 - B20</f>
+        <f t="shared" si="0"/>
         <v>0.9</v>
       </c>
       <c r="B20">
@@ -4668,15 +7194,15 @@
         <v>0.1</v>
       </c>
       <c r="C20" s="3">
-        <f>A20/(A20+1/$L$9*B20)</f>
+        <f t="shared" si="1"/>
         <v>0.62731681642167003</v>
       </c>
       <c r="D20" s="3">
-        <f>B20/($L$9*A20+B20)</f>
+        <f t="shared" si="2"/>
         <v>0.37268318357832997</v>
       </c>
       <c r="E20" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F20">
@@ -4688,1061 +7214,4034 @@
         <v>-1539</v>
       </c>
       <c r="H20" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-1.2154940293363214</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
+    <row r="22" spans="1:23" ht="15.6" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="I23" t="s">
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="6"/>
+      <c r="K23" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="T23" s="5"/>
+      <c r="U23" s="5"/>
+      <c r="V23" s="5"/>
+      <c r="W23" s="6"/>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8" cm="1">
+        <f t="array" ref="F24:I28">LINEST(A25:A34,B25:D34,TRUE,TRUE)</f>
+        <v>-4.3642722783608772</v>
+      </c>
+      <c r="G24" s="8">
+        <v>6.1741213889149211</v>
+      </c>
+      <c r="H24" s="8">
+        <v>-2.6475425037222458</v>
+      </c>
+      <c r="I24" s="9">
+        <v>-1.2086276879058564</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="M24" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N24" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="O24" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="P24" s="8" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>30</v>
-      </c>
-      <c r="B24" t="s">
-        <v>31</v>
-      </c>
-      <c r="C24" t="s">
-        <v>32</v>
-      </c>
-      <c r="D24" t="s">
-        <v>33</v>
-      </c>
-      <c r="E24" t="s">
-        <v>34</v>
-      </c>
-      <c r="F24" t="s">
+      <c r="Q24" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="G24" t="s">
-        <v>39</v>
-      </c>
-      <c r="I24" cm="1">
-        <f t="array" ref="I24:M28">LINEST(A25:A34,B25:E34,TRUE,TRUE)</f>
+      <c r="R24" s="8"/>
+      <c r="S24" s="8" cm="1">
+        <f t="array" ref="S24:W28">LINEST(K25:K34,L25:O34,TRUE,TRUE)</f>
         <v>13.116482628889418</v>
       </c>
-      <c r="J24">
+      <c r="T24" s="8">
         <v>-20.489689453228561</v>
       </c>
-      <c r="K24">
+      <c r="U24" s="8">
         <v>12.364810581901871</v>
       </c>
-      <c r="L24">
+      <c r="V24" s="8">
         <v>-3.458817393391806</v>
       </c>
-      <c r="M24">
+      <c r="W24" s="9">
         <v>-1.1841321859959233</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A25" s="3">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A25" s="10">
         <f>H2</f>
         <v>-1.2913766714255368</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="11">
         <f>C2</f>
         <v>2.0357742859966395E-2</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="11">
         <f>B25^2</f>
         <v>4.1443769435251275E-4</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25" s="11">
         <f>B25^3</f>
         <v>8.4370160131058014E-6</v>
       </c>
-      <c r="E25" s="3">
-        <f>B25^4</f>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8">
+        <v>3.5113266874160498</v>
+      </c>
+      <c r="G25" s="8">
+        <v>3.3712937153086391</v>
+      </c>
+      <c r="H25" s="8">
+        <v>0.84865261769279299</v>
+      </c>
+      <c r="I25" s="9">
+        <v>5.2070676072221454E-2</v>
+      </c>
+      <c r="K25" s="10">
+        <f>H2</f>
+        <v>-1.2913766714255368</v>
+      </c>
+      <c r="L25" s="11">
+        <f>C2</f>
+        <v>2.0357742859966395E-2</v>
+      </c>
+      <c r="M25" s="11">
+        <f>L25^2</f>
+        <v>4.1443769435251275E-4</v>
+      </c>
+      <c r="N25" s="11">
+        <f>L25^3</f>
+        <v>8.4370160131058014E-6</v>
+      </c>
+      <c r="O25" s="11">
+        <f>L25^4</f>
         <v>1.7175860250022678E-7</v>
       </c>
-      <c r="F25" s="3">
-        <f>B25^5</f>
+      <c r="P25" s="11">
+        <f>L25^5</f>
         <v>3.4966174636867979E-9</v>
       </c>
-      <c r="G25" s="3">
-        <f>B25^6</f>
+      <c r="Q25" s="11">
+        <f>L25^6</f>
         <v>7.1183239205403715E-11</v>
       </c>
-      <c r="I25">
+      <c r="R25" s="8"/>
+      <c r="S25" s="8">
         <v>29.001903653066943</v>
       </c>
-      <c r="J25">
+      <c r="T25" s="8">
         <v>35.853740712004615</v>
       </c>
-      <c r="K25">
+      <c r="U25" s="8">
         <v>14.15878122597552</v>
       </c>
-      <c r="L25">
+      <c r="V25" s="8">
         <v>2.0119773037749926</v>
       </c>
-      <c r="M25">
+      <c r="W25" s="9">
         <v>7.784143801942861E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A26" s="3">
-        <f t="shared" ref="A26:A47" si="2">H3</f>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A26" s="10">
+        <f t="shared" ref="A26:A43" si="5">H3</f>
         <v>-1.2682632921583279</v>
       </c>
-      <c r="B26" s="3">
-        <f t="shared" ref="B26:B43" si="3">C3</f>
+      <c r="B26" s="11">
+        <f t="shared" ref="B26:B43" si="6">C3</f>
         <v>4.4668240736279084E-2</v>
       </c>
-      <c r="C26" s="3">
-        <f t="shared" ref="C26:C43" si="4">B26^2</f>
+      <c r="C26" s="11">
+        <f t="shared" ref="C26:C43" si="7">B26^2</f>
         <v>1.9952517304741824E-3</v>
       </c>
-      <c r="D26" s="3">
-        <f t="shared" ref="D26:D43" si="5">B26^3</f>
+      <c r="D26" s="11">
+        <f t="shared" ref="D26:D43" si="8">B26^3</f>
         <v>8.9124384626298214E-5</v>
       </c>
-      <c r="E26" s="3">
-        <f t="shared" ref="E26:E43" si="6">B26^4</f>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8">
+        <v>0.8715349729204297</v>
+      </c>
+      <c r="G26" s="8">
+        <v>5.1876845313598513E-2</v>
+      </c>
+      <c r="H26" s="8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I26" s="9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K26" s="10">
+        <f>H3</f>
+        <v>-1.2682632921583279</v>
+      </c>
+      <c r="L26" s="11">
+        <f>C3</f>
+        <v>4.4668240736279084E-2</v>
+      </c>
+      <c r="M26" s="11">
+        <f t="shared" ref="M26:M43" si="9">L26^2</f>
+        <v>1.9952517304741824E-3</v>
+      </c>
+      <c r="N26" s="11">
+        <f t="shared" ref="N26:N43" si="10">L26^3</f>
+        <v>8.9124384626298214E-5</v>
+      </c>
+      <c r="O26" s="11">
+        <f t="shared" ref="O26:O43" si="11">L26^4</f>
         <v>3.9810294679602194E-6</v>
       </c>
-      <c r="F26" s="3">
-        <f t="shared" ref="F26:F43" si="7">B26^5</f>
+      <c r="P26" s="11">
+        <f t="shared" ref="P26:P43" si="12">L26^5</f>
         <v>1.7782558265306813E-7</v>
       </c>
-      <c r="G26" s="3">
-        <f t="shared" ref="G26:G43" si="8">B26^6</f>
+      <c r="Q26" s="11">
+        <f t="shared" ref="Q26:Q42" si="13">L26^6</f>
         <v>7.9431559350163408E-9</v>
       </c>
-      <c r="I26">
+      <c r="R26" s="8"/>
+      <c r="S26" s="8">
         <v>0.87658372668383377</v>
       </c>
-      <c r="J26">
+      <c r="T26" s="8">
         <v>5.5700351919197789E-2</v>
       </c>
-      <c r="K26" t="e">
+      <c r="U26" s="8" t="e">
         <v>#N/A</v>
       </c>
-      <c r="L26" t="e">
+      <c r="V26" s="8" t="e">
         <v>#N/A</v>
       </c>
-      <c r="M26" t="e">
+      <c r="W26" s="9" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A27" s="3">
-        <f t="shared" si="2"/>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A27" s="10">
+        <f t="shared" si="5"/>
         <v>-1.3526195120999391</v>
       </c>
-      <c r="B27" s="3">
-        <f t="shared" si="3"/>
+      <c r="B27" s="11">
+        <f t="shared" si="6"/>
         <v>7.4206502741718167E-2</v>
       </c>
-      <c r="C27" s="3">
-        <f t="shared" si="4"/>
+      <c r="C27" s="11">
+        <f t="shared" si="7"/>
         <v>5.5066050491566262E-3</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="11">
+        <f t="shared" si="8"/>
+        <v>4.0862590267780026E-4</v>
+      </c>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8">
+        <v>13.568439484788449</v>
+      </c>
+      <c r="G27" s="8">
+        <v>6</v>
+      </c>
+      <c r="H27" s="8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I27" s="9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K27" s="10">
+        <f>H4</f>
+        <v>-1.3526195120999391</v>
+      </c>
+      <c r="L27" s="11">
+        <f>C4</f>
+        <v>7.4206502741718167E-2</v>
+      </c>
+      <c r="M27" s="11">
+        <f t="shared" si="9"/>
+        <v>5.5066050491566262E-3</v>
+      </c>
+      <c r="N27" s="11">
+        <f t="shared" si="10"/>
+        <v>4.0862590267780026E-4</v>
+      </c>
+      <c r="O27" s="11">
+        <f t="shared" si="11"/>
+        <v>3.0322699167397249E-5</v>
+      </c>
+      <c r="P27" s="11">
+        <f t="shared" si="12"/>
+        <v>2.250141458901759E-6</v>
+      </c>
+      <c r="Q27" s="11">
+        <f t="shared" si="13"/>
+        <v>1.6697512833924711E-7</v>
+      </c>
+      <c r="R27" s="8"/>
+      <c r="S27" s="8">
+        <v>8.8783239755406171</v>
+      </c>
+      <c r="T27" s="8">
+        <v>5</v>
+      </c>
+      <c r="U27" s="8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V27" s="8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="W27" s="9" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A28" s="10">
         <f t="shared" si="5"/>
+        <v>-1.4514506205618123</v>
+      </c>
+      <c r="B28" s="11">
+        <f t="shared" si="6"/>
+        <v>0.1108619607139654</v>
+      </c>
+      <c r="C28" s="11">
+        <f t="shared" si="7"/>
+        <v>1.2290374333344806E-2</v>
+      </c>
+      <c r="D28" s="11">
+        <f t="shared" si="8"/>
+        <v>1.3625349965032006E-3</v>
+      </c>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8">
+        <v>0.10954644120546586</v>
+      </c>
+      <c r="G28" s="8">
+        <v>1.6147242478146168E-2</v>
+      </c>
+      <c r="H28" s="8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I28" s="9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K28" s="10">
+        <f>H5</f>
+        <v>-1.4514506205618123</v>
+      </c>
+      <c r="L28" s="11">
+        <f>C5</f>
+        <v>0.1108619607139654</v>
+      </c>
+      <c r="M28" s="11">
+        <f t="shared" si="9"/>
+        <v>1.2290374333344806E-2</v>
+      </c>
+      <c r="N28" s="11">
+        <f t="shared" si="10"/>
+        <v>1.3625349965032006E-3</v>
+      </c>
+      <c r="O28" s="11">
+        <f t="shared" si="11"/>
+        <v>1.5105330125374079E-4</v>
+      </c>
+      <c r="P28" s="11">
+        <f t="shared" si="12"/>
+        <v>1.6746065149306992E-5</v>
+      </c>
+      <c r="Q28" s="11">
+        <f t="shared" si="13"/>
+        <v>1.8565016166959768E-6</v>
+      </c>
+      <c r="R28" s="8"/>
+      <c r="S28" s="8">
+        <v>0.11018103766399963</v>
+      </c>
+      <c r="T28" s="8">
+        <v>1.5512646019612405E-2</v>
+      </c>
+      <c r="U28" s="8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V28" s="8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="W28" s="9" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A29" s="10">
+        <f t="shared" si="5"/>
+        <v>-1.5278075302222651</v>
+      </c>
+      <c r="B29" s="11">
+        <f t="shared" si="6"/>
+        <v>0.15755927594119148</v>
+      </c>
+      <c r="C29" s="11">
+        <f t="shared" si="7"/>
+        <v>2.482492543511252E-2</v>
+      </c>
+      <c r="D29" s="11">
+        <f t="shared" si="8"/>
+        <v>3.9113972768503964E-3</v>
+      </c>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="9"/>
+      <c r="K29" s="10">
+        <f>H6</f>
+        <v>-1.5278075302222651</v>
+      </c>
+      <c r="L29" s="11">
+        <f>C6</f>
+        <v>0.15755927594119148</v>
+      </c>
+      <c r="M29" s="11">
+        <f t="shared" si="9"/>
+        <v>2.482492543511252E-2</v>
+      </c>
+      <c r="N29" s="11">
+        <f t="shared" si="10"/>
+        <v>3.9113972768503964E-3</v>
+      </c>
+      <c r="O29" s="11">
+        <f t="shared" si="11"/>
+        <v>6.1627692285889653E-4</v>
+      </c>
+      <c r="P29" s="11">
+        <f t="shared" si="12"/>
+        <v>9.7100145744913251E-5</v>
+      </c>
+      <c r="Q29" s="11">
+        <f t="shared" si="13"/>
+        <v>1.5299028657352696E-5</v>
+      </c>
+      <c r="R29" s="8"/>
+      <c r="S29" s="8"/>
+      <c r="T29" s="8"/>
+      <c r="U29" s="8"/>
+      <c r="V29" s="8"/>
+      <c r="W29" s="9"/>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A30" s="10">
+        <f t="shared" si="5"/>
+        <v>-1.5711368963773451</v>
+      </c>
+      <c r="B30" s="11">
+        <f t="shared" si="6"/>
+        <v>0.21907988025838979</v>
+      </c>
+      <c r="C30" s="11">
+        <f t="shared" si="7"/>
+        <v>4.7995993934030409E-2</v>
+      </c>
+      <c r="D30" s="11">
+        <f t="shared" si="8"/>
+        <v>1.0514956603949785E-2</v>
+      </c>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="9"/>
+      <c r="K30" s="10">
+        <f>H7</f>
+        <v>-1.5711368963773451</v>
+      </c>
+      <c r="L30" s="11">
+        <f>C7</f>
+        <v>0.21907988025838979</v>
+      </c>
+      <c r="M30" s="11">
+        <f t="shared" si="9"/>
+        <v>4.7995993934030409E-2</v>
+      </c>
+      <c r="N30" s="11">
+        <f t="shared" si="10"/>
+        <v>1.0514956603949785E-2</v>
+      </c>
+      <c r="O30" s="11">
+        <f t="shared" si="11"/>
+        <v>2.3036154337154838E-3</v>
+      </c>
+      <c r="P30" s="11">
+        <f t="shared" si="12"/>
+        <v>5.0467579337976683E-4</v>
+      </c>
+      <c r="Q30" s="11">
+        <f t="shared" si="13"/>
+        <v>1.1056431238294719E-4</v>
+      </c>
+      <c r="R30" s="8"/>
+      <c r="S30" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="T30" s="8"/>
+      <c r="U30" s="8"/>
+      <c r="V30" s="8"/>
+      <c r="W30" s="9"/>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A31" s="10">
+        <f t="shared" si="5"/>
+        <v>-1.466979086078777</v>
+      </c>
+      <c r="B31" s="11">
+        <f t="shared" si="6"/>
+        <v>0.27521618621592697</v>
+      </c>
+      <c r="C31" s="11">
+        <f t="shared" si="7"/>
+        <v>7.5743949155239798E-2</v>
+      </c>
+      <c r="D31" s="11">
+        <f t="shared" si="8"/>
+        <v>2.0845960815438182E-2</v>
+      </c>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8" cm="1">
+        <f t="array" ref="F31:I35">LINEST(A35:A43,B35:D43,TRUE,TRUE)</f>
+        <v>-6.469356748005608</v>
+      </c>
+      <c r="G31" s="8">
+        <v>9.3737577269006032</v>
+      </c>
+      <c r="H31" s="8">
+        <v>-3.7616364232430364</v>
+      </c>
+      <c r="I31" s="9">
+        <v>-0.94928818695449713</v>
+      </c>
+      <c r="K31" s="10">
+        <f>H8</f>
+        <v>-1.466979086078777</v>
+      </c>
+      <c r="L31" s="11">
+        <f>C8</f>
+        <v>0.27521618621592697</v>
+      </c>
+      <c r="M31" s="11">
+        <f t="shared" si="9"/>
+        <v>7.5743949155239798E-2</v>
+      </c>
+      <c r="N31" s="11">
+        <f t="shared" si="10"/>
+        <v>2.0845960815438182E-2</v>
+      </c>
+      <c r="O31" s="11">
+        <f t="shared" si="11"/>
+        <v>5.7371458336315517E-3</v>
+      </c>
+      <c r="P31" s="11">
+        <f t="shared" si="12"/>
+        <v>1.5789553960966708E-3</v>
+      </c>
+      <c r="Q31" s="11">
+        <f t="shared" si="13"/>
+        <v>4.3455408231878409E-4</v>
+      </c>
+      <c r="R31" s="8"/>
+      <c r="S31" s="8" cm="1">
+        <f t="array" ref="S31:W35">LINEST(K35:K43,L35:O43,TRUE,TRUE)</f>
+        <v>15.478036150584751</v>
+      </c>
+      <c r="T31" s="8">
+        <v>-25.465511962467453</v>
+      </c>
+      <c r="U31" s="8">
+        <v>16.602266496202102</v>
+      </c>
+      <c r="V31" s="8">
+        <v>-4.6812912293610029</v>
+      </c>
+      <c r="W31" s="9">
+        <v>-0.92232385110682458</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A32" s="10">
+        <f t="shared" si="5"/>
+        <v>-1.5866128909409316</v>
+      </c>
+      <c r="B32" s="11">
+        <f t="shared" si="6"/>
+        <v>0.30381347004705389</v>
+      </c>
+      <c r="C32" s="11">
+        <f t="shared" si="7"/>
+        <v>9.2302624582032117E-2</v>
+      </c>
+      <c r="D32" s="11">
+        <f t="shared" si="8"/>
+        <v>2.8042780668717675E-2</v>
+      </c>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8">
+        <v>1.2246141586364072</v>
+      </c>
+      <c r="G32" s="8">
+        <v>1.1801939722365875</v>
+      </c>
+      <c r="H32" s="8">
+        <v>0.30079389003837265</v>
+      </c>
+      <c r="I32" s="9">
+        <v>1.8365110871182529E-2</v>
+      </c>
+      <c r="K32" s="10">
+        <f>H9</f>
+        <v>-1.5866128909409316</v>
+      </c>
+      <c r="L32" s="11">
+        <f>C9</f>
+        <v>0.30381347004705389</v>
+      </c>
+      <c r="M32" s="11">
+        <f t="shared" si="9"/>
+        <v>9.2302624582032117E-2</v>
+      </c>
+      <c r="N32" s="11">
+        <f t="shared" si="10"/>
+        <v>2.8042780668717675E-2</v>
+      </c>
+      <c r="O32" s="11">
+        <f t="shared" si="11"/>
+        <v>8.5197745047315594E-3</v>
+      </c>
+      <c r="P32" s="11">
+        <f t="shared" si="12"/>
+        <v>2.5884222563009149E-3</v>
+      </c>
+      <c r="Q32" s="11">
+        <f t="shared" si="13"/>
+        <v>7.8639754763380569E-4</v>
+      </c>
+      <c r="R32" s="8"/>
+      <c r="S32" s="8">
+        <v>8.6215464379882008</v>
+      </c>
+      <c r="T32" s="8">
+        <v>10.630144525553947</v>
+      </c>
+      <c r="U32" s="8">
+        <v>4.1444132413319394</v>
+      </c>
+      <c r="V32" s="8">
+        <v>0.57012795202493072</v>
+      </c>
+      <c r="W32" s="9">
+        <v>2.1425763818472887E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A33" s="10">
+        <f t="shared" si="5"/>
+        <v>-1.5737934726088458</v>
+      </c>
+      <c r="B33" s="11">
+        <f t="shared" si="6"/>
+        <v>0.42795314213168678</v>
+      </c>
+      <c r="C33" s="11">
+        <f t="shared" si="7"/>
+        <v>0.18314389186038371</v>
+      </c>
+      <c r="D33" s="11">
+        <f t="shared" si="8"/>
+        <v>7.8377003983877064E-2</v>
+      </c>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8">
+        <v>0.98869797091538358</v>
+      </c>
+      <c r="G33" s="8">
+        <v>1.8079088265662749E-2</v>
+      </c>
+      <c r="H33" s="8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I33" s="9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K33" s="10">
+        <f>H10</f>
+        <v>-1.5737934726088458</v>
+      </c>
+      <c r="L33" s="11">
+        <f>C10</f>
+        <v>0.42795314213168678</v>
+      </c>
+      <c r="M33" s="11">
+        <f t="shared" si="9"/>
+        <v>0.18314389186038371</v>
+      </c>
+      <c r="N33" s="11">
+        <f t="shared" si="10"/>
+        <v>7.8377003983877064E-2</v>
+      </c>
+      <c r="O33" s="11">
+        <f t="shared" si="11"/>
+        <v>3.3541685125767925E-2</v>
+      </c>
+      <c r="P33" s="11">
+        <f t="shared" si="12"/>
+        <v>1.4354269541964046E-2</v>
+      </c>
+      <c r="Q33" s="11">
+        <f t="shared" si="13"/>
+        <v>6.142954753488682E-3</v>
+      </c>
+      <c r="R33" s="8"/>
+      <c r="S33" s="8">
+        <v>0.99374109554146939</v>
+      </c>
+      <c r="T33" s="8">
+        <v>1.5041892562040341E-2</v>
+      </c>
+      <c r="U33" s="8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V33" s="8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="W33" s="9" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A34" s="10">
+        <f t="shared" si="5"/>
+        <v>-1.5140103131496225</v>
+      </c>
+      <c r="B34" s="11">
+        <f t="shared" si="6"/>
+        <v>0.62731681642167003</v>
+      </c>
+      <c r="C34" s="11">
+        <f t="shared" si="7"/>
+        <v>0.39352638816541924</v>
+      </c>
+      <c r="D34" s="11">
+        <f t="shared" si="8"/>
+        <v>0.24686572100184917</v>
+      </c>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8">
+        <v>145.79947894210994</v>
+      </c>
+      <c r="G34" s="8">
+        <v>5</v>
+      </c>
+      <c r="H34" s="8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I34" s="9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K34" s="10">
+        <f>H11</f>
+        <v>-1.5140103131496225</v>
+      </c>
+      <c r="L34" s="11">
+        <f>C11</f>
+        <v>0.62731681642167003</v>
+      </c>
+      <c r="M34" s="11">
+        <f t="shared" si="9"/>
+        <v>0.39352638816541924</v>
+      </c>
+      <c r="N34" s="11">
+        <f t="shared" si="10"/>
+        <v>0.24686572100184917</v>
+      </c>
+      <c r="O34" s="11">
+        <f t="shared" si="11"/>
+        <v>0.15486301818252021</v>
+      </c>
+      <c r="P34" s="11">
+        <f t="shared" si="12"/>
+        <v>9.7148175547709784E-2</v>
+      </c>
+      <c r="Q34" s="11">
+        <f t="shared" si="13"/>
+        <v>6.0942684205762827E-2</v>
+      </c>
+      <c r="R34" s="8"/>
+      <c r="S34" s="8">
+        <v>158.77237016887574</v>
+      </c>
+      <c r="T34" s="8">
+        <v>4</v>
+      </c>
+      <c r="U34" s="8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V34" s="8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="W34" s="9" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A35" s="10">
+        <f t="shared" si="5"/>
+        <v>-0.99583285786358167</v>
+      </c>
+      <c r="B35" s="11">
+        <f t="shared" si="6"/>
+        <v>2.0357742859966395E-2</v>
+      </c>
+      <c r="C35" s="11">
+        <f t="shared" si="7"/>
+        <v>4.1443769435251275E-4</v>
+      </c>
+      <c r="D35" s="11">
+        <f t="shared" si="8"/>
+        <v>8.4370160131058014E-6</v>
+      </c>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8">
+        <v>0.14296518045452924</v>
+      </c>
+      <c r="G35" s="8">
+        <v>1.6342671625881227E-3</v>
+      </c>
+      <c r="H35" s="8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I35" s="9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K35" s="10">
+        <f>H12</f>
+        <v>-0.99583285786358167</v>
+      </c>
+      <c r="L35" s="11">
+        <f>C12</f>
+        <v>2.0357742859966395E-2</v>
+      </c>
+      <c r="M35" s="11">
+        <f t="shared" si="9"/>
+        <v>4.1443769435251275E-4</v>
+      </c>
+      <c r="N35" s="11">
+        <f t="shared" si="10"/>
+        <v>8.4370160131058014E-6</v>
+      </c>
+      <c r="O35" s="11">
+        <f t="shared" si="11"/>
+        <v>1.7175860250022678E-7</v>
+      </c>
+      <c r="P35" s="11">
+        <f t="shared" si="12"/>
+        <v>3.4966174636867979E-9</v>
+      </c>
+      <c r="Q35" s="11">
+        <f t="shared" si="13"/>
+        <v>7.1183239205403715E-11</v>
+      </c>
+      <c r="R35" s="8"/>
+      <c r="S35" s="8">
+        <v>0.14369441348972553</v>
+      </c>
+      <c r="T35" s="8">
+        <v>9.05034127391858E-4</v>
+      </c>
+      <c r="U35" s="8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="V35" s="8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="W35" s="9" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A36" s="10">
+        <f t="shared" si="5"/>
+        <v>-1.1195466118006885</v>
+      </c>
+      <c r="B36" s="11">
+        <f t="shared" si="6"/>
+        <v>4.4668240736279084E-2</v>
+      </c>
+      <c r="C36" s="11">
+        <f t="shared" si="7"/>
+        <v>1.9952517304741824E-3</v>
+      </c>
+      <c r="D36" s="11">
+        <f t="shared" si="8"/>
+        <v>8.9124384626298214E-5</v>
+      </c>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="9"/>
+      <c r="K36" s="10">
+        <f>H13</f>
+        <v>-1.1195466118006885</v>
+      </c>
+      <c r="L36" s="11">
+        <f>C13</f>
+        <v>4.4668240736279084E-2</v>
+      </c>
+      <c r="M36" s="11">
+        <f t="shared" si="9"/>
+        <v>1.9952517304741824E-3</v>
+      </c>
+      <c r="N36" s="11">
+        <f t="shared" si="10"/>
+        <v>8.9124384626298214E-5</v>
+      </c>
+      <c r="O36" s="11">
+        <f t="shared" si="11"/>
+        <v>3.9810294679602194E-6</v>
+      </c>
+      <c r="P36" s="11">
+        <f t="shared" si="12"/>
+        <v>1.7782558265306813E-7</v>
+      </c>
+      <c r="Q36" s="11">
+        <f t="shared" si="13"/>
+        <v>7.9431559350163408E-9</v>
+      </c>
+      <c r="R36" s="8"/>
+      <c r="S36" s="8"/>
+      <c r="T36" s="8"/>
+      <c r="U36" s="8"/>
+      <c r="V36" s="8"/>
+      <c r="W36" s="9"/>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A37" s="10">
+        <f t="shared" si="5"/>
+        <v>-1.1964851691771323</v>
+      </c>
+      <c r="B37" s="11">
+        <f t="shared" si="6"/>
+        <v>7.4206502741718167E-2</v>
+      </c>
+      <c r="C37" s="11">
+        <f t="shared" si="7"/>
+        <v>5.5066050491566262E-3</v>
+      </c>
+      <c r="D37" s="11">
+        <f t="shared" si="8"/>
         <v>4.0862590267780026E-4</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="9"/>
+      <c r="K37" s="10">
+        <f>H14</f>
+        <v>-1.1964851691771323</v>
+      </c>
+      <c r="L37" s="11">
+        <f>C14</f>
+        <v>7.4206502741718167E-2</v>
+      </c>
+      <c r="M37" s="11">
+        <f t="shared" si="9"/>
+        <v>5.5066050491566262E-3</v>
+      </c>
+      <c r="N37" s="11">
+        <f t="shared" si="10"/>
+        <v>4.0862590267780026E-4</v>
+      </c>
+      <c r="O37" s="11">
+        <f t="shared" si="11"/>
+        <v>3.0322699167397249E-5</v>
+      </c>
+      <c r="P37" s="11">
+        <f t="shared" si="12"/>
+        <v>2.250141458901759E-6</v>
+      </c>
+      <c r="Q37" s="11">
+        <f t="shared" si="13"/>
+        <v>1.6697512833924711E-7</v>
+      </c>
+      <c r="R37" s="8"/>
+      <c r="S37" s="8"/>
+      <c r="T37" s="8"/>
+      <c r="U37" s="8"/>
+      <c r="V37" s="8"/>
+      <c r="W37" s="9"/>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A38" s="10">
+        <f t="shared" si="5"/>
+        <v>-1.262633231573862</v>
+      </c>
+      <c r="B38" s="11">
         <f t="shared" si="6"/>
-        <v>3.0322699167397249E-5</v>
-      </c>
-      <c r="F27" s="3">
+        <v>0.1108619607139654</v>
+      </c>
+      <c r="C38" s="11">
         <f t="shared" si="7"/>
-        <v>2.250141458901759E-6</v>
-      </c>
-      <c r="G27" s="3">
+        <v>1.2290374333344806E-2</v>
+      </c>
+      <c r="D38" s="11">
         <f t="shared" si="8"/>
-        <v>1.6697512833924711E-7</v>
-      </c>
-      <c r="I27">
-        <v>8.8783239755406171</v>
-      </c>
-      <c r="J27">
-        <v>5</v>
-      </c>
-      <c r="K27" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L27" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M27" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A28" s="3">
-        <f t="shared" si="2"/>
-        <v>-1.4514506205618123</v>
-      </c>
-      <c r="B28" s="3">
-        <f t="shared" si="3"/>
+        <v>1.3625349965032006E-3</v>
+      </c>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="9"/>
+      <c r="K38" s="10">
+        <f>H15</f>
+        <v>-1.262633231573862</v>
+      </c>
+      <c r="L38" s="11">
+        <f>C15</f>
         <v>0.1108619607139654</v>
       </c>
-      <c r="C28" s="3">
-        <f t="shared" si="4"/>
+      <c r="M38" s="11">
+        <f t="shared" si="9"/>
         <v>1.2290374333344806E-2</v>
       </c>
-      <c r="D28" s="3">
+      <c r="N38" s="11">
+        <f t="shared" si="10"/>
+        <v>1.3625349965032006E-3</v>
+      </c>
+      <c r="O38" s="11">
+        <f t="shared" si="11"/>
+        <v>1.5105330125374079E-4</v>
+      </c>
+      <c r="P38" s="11">
+        <f t="shared" si="12"/>
+        <v>1.6746065149306992E-5</v>
+      </c>
+      <c r="Q38" s="11">
+        <f t="shared" si="13"/>
+        <v>1.8565016166959768E-6</v>
+      </c>
+      <c r="R38" s="8"/>
+      <c r="S38" s="8"/>
+      <c r="T38" s="8"/>
+      <c r="U38" s="8"/>
+      <c r="V38" s="8"/>
+      <c r="W38" s="9"/>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A39" s="10">
         <f t="shared" si="5"/>
-        <v>1.3625349965032006E-3</v>
-      </c>
-      <c r="E28" s="3">
+        <v>-1.3279221123422738</v>
+      </c>
+      <c r="B39" s="11">
         <f t="shared" si="6"/>
-        <v>1.5105330125374079E-4</v>
-      </c>
-      <c r="F28" s="3">
+        <v>0.15755927594119148</v>
+      </c>
+      <c r="C39" s="11">
         <f t="shared" si="7"/>
-        <v>1.6746065149306992E-5</v>
-      </c>
-      <c r="G28" s="3">
+        <v>2.482492543511252E-2</v>
+      </c>
+      <c r="D39" s="11">
         <f t="shared" si="8"/>
-        <v>1.8565016166959768E-6</v>
-      </c>
-      <c r="I28">
-        <v>0.11018103766399963</v>
-      </c>
-      <c r="J28">
-        <v>1.5512646019612405E-2</v>
-      </c>
-      <c r="K28" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L28" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M28" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A29" s="3">
-        <f t="shared" si="2"/>
-        <v>-1.5278075302222651</v>
-      </c>
-      <c r="B29" s="3">
-        <f t="shared" si="3"/>
+        <v>3.9113972768503964E-3</v>
+      </c>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="9"/>
+      <c r="K39" s="10">
+        <f>H16</f>
+        <v>-1.3279221123422738</v>
+      </c>
+      <c r="L39" s="11">
+        <f>C16</f>
         <v>0.15755927594119148</v>
       </c>
-      <c r="C29" s="3">
-        <f t="shared" si="4"/>
+      <c r="M39" s="11">
+        <f t="shared" si="9"/>
         <v>2.482492543511252E-2</v>
       </c>
-      <c r="D29" s="3">
+      <c r="N39" s="11">
+        <f t="shared" si="10"/>
+        <v>3.9113972768503964E-3</v>
+      </c>
+      <c r="O39" s="11">
+        <f t="shared" si="11"/>
+        <v>6.1627692285889653E-4</v>
+      </c>
+      <c r="P39" s="11">
+        <f t="shared" si="12"/>
+        <v>9.7100145744913251E-5</v>
+      </c>
+      <c r="Q39" s="11">
+        <f t="shared" si="13"/>
+        <v>1.5299028657352696E-5</v>
+      </c>
+      <c r="R39" s="8"/>
+      <c r="S39" s="8"/>
+      <c r="T39" s="8"/>
+      <c r="U39" s="8"/>
+      <c r="V39" s="8"/>
+      <c r="W39" s="9"/>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A40" s="10">
         <f t="shared" si="5"/>
-        <v>3.9113972768503964E-3</v>
-      </c>
-      <c r="E29" s="3">
+        <v>-1.3820689432890265</v>
+      </c>
+      <c r="B40" s="11">
         <f t="shared" si="6"/>
-        <v>6.1627692285889653E-4</v>
-      </c>
-      <c r="F29" s="3">
+        <v>0.21907988025838979</v>
+      </c>
+      <c r="C40" s="11">
         <f t="shared" si="7"/>
-        <v>9.7100145744913251E-5</v>
-      </c>
-      <c r="G29" s="3">
+        <v>4.7995993934030409E-2</v>
+      </c>
+      <c r="D40" s="11">
         <f t="shared" si="8"/>
-        <v>1.5299028657352696E-5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A30" s="3">
-        <f t="shared" si="2"/>
-        <v>-1.5711368963773451</v>
-      </c>
-      <c r="B30" s="3">
-        <f t="shared" si="3"/>
+        <v>1.0514956603949785E-2</v>
+      </c>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="9"/>
+      <c r="K40" s="10">
+        <f>H17</f>
+        <v>-1.3820689432890265</v>
+      </c>
+      <c r="L40" s="11">
+        <f>C17</f>
         <v>0.21907988025838979</v>
       </c>
-      <c r="C30" s="3">
-        <f t="shared" si="4"/>
+      <c r="M40" s="11">
+        <f t="shared" si="9"/>
         <v>4.7995993934030409E-2</v>
       </c>
-      <c r="D30" s="3">
+      <c r="N40" s="11">
+        <f t="shared" si="10"/>
+        <v>1.0514956603949785E-2</v>
+      </c>
+      <c r="O40" s="11">
+        <f t="shared" si="11"/>
+        <v>2.3036154337154838E-3</v>
+      </c>
+      <c r="P40" s="11">
+        <f t="shared" si="12"/>
+        <v>5.0467579337976683E-4</v>
+      </c>
+      <c r="Q40" s="11">
+        <f t="shared" si="13"/>
+        <v>1.1056431238294719E-4</v>
+      </c>
+      <c r="R40" s="8"/>
+      <c r="S40" s="8"/>
+      <c r="T40" s="8"/>
+      <c r="U40" s="8"/>
+      <c r="V40" s="8"/>
+      <c r="W40" s="9"/>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A41" s="10">
         <f t="shared" si="5"/>
-        <v>1.0514956603949785E-2</v>
-      </c>
-      <c r="E30" s="3">
+        <v>-1.4035408629153976</v>
+      </c>
+      <c r="B41" s="11">
         <f t="shared" si="6"/>
-        <v>2.3036154337154838E-3</v>
-      </c>
-      <c r="F30" s="3">
+        <v>0.30381347004705389</v>
+      </c>
+      <c r="C41" s="11">
         <f t="shared" si="7"/>
-        <v>5.0467579337976683E-4</v>
-      </c>
-      <c r="G30" s="3">
+        <v>9.2302624582032117E-2</v>
+      </c>
+      <c r="D41" s="11">
         <f t="shared" si="8"/>
-        <v>1.1056431238294719E-4</v>
-      </c>
-      <c r="I30" t="s">
+        <v>2.8042780668717675E-2</v>
+      </c>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="9"/>
+      <c r="K41" s="10">
+        <f>H18</f>
+        <v>-1.4035408629153976</v>
+      </c>
+      <c r="L41" s="11">
+        <f>C18</f>
+        <v>0.30381347004705389</v>
+      </c>
+      <c r="M41" s="11">
+        <f t="shared" si="9"/>
+        <v>9.2302624582032117E-2</v>
+      </c>
+      <c r="N41" s="11">
+        <f t="shared" si="10"/>
+        <v>2.8042780668717675E-2</v>
+      </c>
+      <c r="O41" s="11">
+        <f t="shared" si="11"/>
+        <v>8.5197745047315594E-3</v>
+      </c>
+      <c r="P41" s="11">
+        <f t="shared" si="12"/>
+        <v>2.5884222563009149E-3</v>
+      </c>
+      <c r="Q41" s="11">
+        <f t="shared" si="13"/>
+        <v>7.8639754763380569E-4</v>
+      </c>
+      <c r="R41" s="8"/>
+      <c r="S41" s="8"/>
+      <c r="T41" s="8"/>
+      <c r="U41" s="8"/>
+      <c r="V41" s="8"/>
+      <c r="W41" s="9"/>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A42" s="10">
+        <f t="shared" si="5"/>
+        <v>-1.3581321650903104</v>
+      </c>
+      <c r="B42" s="11">
+        <f t="shared" si="6"/>
+        <v>0.42795314213168678</v>
+      </c>
+      <c r="C42" s="11">
+        <f t="shared" si="7"/>
+        <v>0.18314389186038371</v>
+      </c>
+      <c r="D42" s="11">
+        <f t="shared" si="8"/>
+        <v>7.8377003983877064E-2</v>
+      </c>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="9"/>
+      <c r="K42" s="10">
+        <f>H19</f>
+        <v>-1.3581321650903104</v>
+      </c>
+      <c r="L42" s="11">
+        <f>C19</f>
+        <v>0.42795314213168678</v>
+      </c>
+      <c r="M42" s="11">
+        <f t="shared" si="9"/>
+        <v>0.18314389186038371</v>
+      </c>
+      <c r="N42" s="11">
+        <f t="shared" si="10"/>
+        <v>7.8377003983877064E-2</v>
+      </c>
+      <c r="O42" s="11">
+        <f t="shared" si="11"/>
+        <v>3.3541685125767925E-2</v>
+      </c>
+      <c r="P42" s="11">
+        <f t="shared" si="12"/>
+        <v>1.4354269541964046E-2</v>
+      </c>
+      <c r="Q42" s="11">
+        <f t="shared" si="13"/>
+        <v>6.142954753488682E-3</v>
+      </c>
+      <c r="R42" s="8"/>
+      <c r="S42" s="8"/>
+      <c r="T42" s="8"/>
+      <c r="U42" s="8"/>
+      <c r="V42" s="8"/>
+      <c r="W42" s="9"/>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A43" s="10">
+        <f t="shared" si="5"/>
+        <v>-1.2154940293363214</v>
+      </c>
+      <c r="B43" s="11">
+        <f t="shared" si="6"/>
+        <v>0.62731681642167003</v>
+      </c>
+      <c r="C43" s="11">
+        <f t="shared" si="7"/>
+        <v>0.39352638816541924</v>
+      </c>
+      <c r="D43" s="11">
+        <f t="shared" si="8"/>
+        <v>0.24686572100184917</v>
+      </c>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="9"/>
+      <c r="K43" s="10">
+        <f>H20</f>
+        <v>-1.2154940293363214</v>
+      </c>
+      <c r="L43" s="11">
+        <f>C20</f>
+        <v>0.62731681642167003</v>
+      </c>
+      <c r="M43" s="11">
+        <f t="shared" si="9"/>
+        <v>0.39352638816541924</v>
+      </c>
+      <c r="N43" s="11">
+        <f t="shared" si="10"/>
+        <v>0.24686572100184917</v>
+      </c>
+      <c r="O43" s="11">
+        <f t="shared" si="11"/>
+        <v>0.15486301818252021</v>
+      </c>
+      <c r="P43" s="11">
+        <f t="shared" si="12"/>
+        <v>9.7148175547709784E-2</v>
+      </c>
+      <c r="Q43" s="11">
+        <f>L43^6</f>
+        <v>6.0942684205762827E-2</v>
+      </c>
+      <c r="R43" s="8"/>
+      <c r="S43" s="8"/>
+      <c r="T43" s="8"/>
+      <c r="U43" s="8"/>
+      <c r="V43" s="8"/>
+      <c r="W43" s="9"/>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A44" s="10"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="9"/>
+      <c r="K44" s="10"/>
+      <c r="L44" s="8"/>
+      <c r="M44" s="8"/>
+      <c r="N44" s="8"/>
+      <c r="O44" s="8"/>
+      <c r="P44" s="8"/>
+      <c r="Q44" s="8"/>
+      <c r="R44" s="8"/>
+      <c r="S44" s="8"/>
+      <c r="T44" s="8"/>
+      <c r="U44" s="8"/>
+      <c r="V44" s="8"/>
+      <c r="W44" s="9"/>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A45" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="9"/>
+      <c r="K45" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="L45" s="8"/>
+      <c r="M45" s="8"/>
+      <c r="N45" s="8"/>
+      <c r="O45" s="8"/>
+      <c r="P45" s="8"/>
+      <c r="Q45" s="8"/>
+      <c r="R45" s="8"/>
+      <c r="S45" s="8"/>
+      <c r="T45" s="8"/>
+      <c r="U45" s="8"/>
+      <c r="V45" s="8"/>
+      <c r="W45" s="9"/>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A46" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C46" s="8" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A31" s="3">
-        <f t="shared" si="2"/>
-        <v>-1.466979086078777</v>
-      </c>
-      <c r="B31" s="3">
-        <f t="shared" si="3"/>
-        <v>0.27521618621592697</v>
-      </c>
-      <c r="C31" s="3">
-        <f t="shared" si="4"/>
-        <v>7.5743949155239798E-2</v>
-      </c>
-      <c r="D31" s="3">
-        <f t="shared" si="5"/>
-        <v>2.0845960815438182E-2</v>
-      </c>
-      <c r="E31" s="3">
-        <f t="shared" si="6"/>
-        <v>5.7371458336315517E-3</v>
-      </c>
-      <c r="F31" s="3">
-        <f t="shared" si="7"/>
-        <v>1.5789553960966708E-3</v>
-      </c>
-      <c r="G31" s="3">
-        <f t="shared" si="8"/>
-        <v>4.3455408231878409E-4</v>
-      </c>
-      <c r="I31" cm="1">
-        <f t="array" ref="I31:M35">LINEST(A35:A43,B35:E43,TRUE,TRUE)</f>
-        <v>15.478036150584751</v>
-      </c>
-      <c r="J31">
-        <v>-25.465511962467453</v>
-      </c>
-      <c r="K31">
-        <v>16.602266496202102</v>
-      </c>
-      <c r="L31">
-        <v>-4.6812912293610029</v>
-      </c>
-      <c r="M31">
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="9"/>
+      <c r="K46" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="L46" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="M46" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="N46" s="8"/>
+      <c r="O46" s="8"/>
+      <c r="P46" s="8"/>
+      <c r="Q46" s="8"/>
+      <c r="R46" s="8"/>
+      <c r="S46" s="8"/>
+      <c r="T46" s="8"/>
+      <c r="U46" s="8"/>
+      <c r="V46" s="8"/>
+      <c r="W46" s="9"/>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A47" s="10">
+        <v>0</v>
+      </c>
+      <c r="B47" s="11">
+        <f>$I$24+$H$24*A47+$G$24*A47^2+$F$24*A47^4</f>
+        <v>-1.2086276879058564</v>
+      </c>
+      <c r="C47" s="11">
+        <f>$I$31+$H$31*A47+$G$31*A47^2+$F$31*A47^4</f>
+        <v>-0.94928818695449713</v>
+      </c>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8"/>
+      <c r="I47" s="9"/>
+      <c r="K47" s="10">
+        <v>0</v>
+      </c>
+      <c r="L47" s="11">
+        <f>$W$24+$V$24*K47+$U$24*K47^2+$T$24*K47^3+$S$24*K47^4</f>
+        <v>-1.1841321859959233</v>
+      </c>
+      <c r="M47" s="11">
+        <f>$W$31+$V$31*K47+$U$31*K47^2+$T$31*K47^3+$S$31*K47^4</f>
         <v>-0.92232385110682458</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A32" s="3">
-        <f t="shared" si="2"/>
-        <v>-1.5866128909409316</v>
-      </c>
-      <c r="B32" s="3">
-        <f t="shared" si="3"/>
-        <v>0.30381347004705389</v>
-      </c>
-      <c r="C32" s="3">
-        <f t="shared" si="4"/>
-        <v>9.2302624582032117E-2</v>
-      </c>
-      <c r="D32" s="3">
-        <f t="shared" si="5"/>
-        <v>2.8042780668717675E-2</v>
-      </c>
-      <c r="E32" s="3">
-        <f t="shared" si="6"/>
-        <v>8.5197745047315594E-3</v>
-      </c>
-      <c r="F32" s="3">
-        <f t="shared" si="7"/>
-        <v>2.5884222563009149E-3</v>
-      </c>
-      <c r="G32" s="3">
-        <f t="shared" si="8"/>
-        <v>7.8639754763380569E-4</v>
-      </c>
-      <c r="I32">
-        <v>8.6215464379882008</v>
-      </c>
-      <c r="J32">
-        <v>10.630144525553947</v>
-      </c>
-      <c r="K32">
-        <v>4.1444132413319394</v>
-      </c>
-      <c r="L32">
-        <v>0.57012795202493072</v>
-      </c>
-      <c r="M32">
-        <v>2.1425763818472887E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A33" s="3">
-        <f t="shared" si="2"/>
-        <v>-1.5737934726088458</v>
-      </c>
-      <c r="B33" s="3">
-        <f t="shared" si="3"/>
-        <v>0.42795314213168678</v>
-      </c>
-      <c r="C33" s="3">
-        <f t="shared" si="4"/>
-        <v>0.18314389186038371</v>
-      </c>
-      <c r="D33" s="3">
-        <f t="shared" si="5"/>
-        <v>7.8377003983877064E-2</v>
-      </c>
-      <c r="E33" s="3">
-        <f t="shared" si="6"/>
-        <v>3.3541685125767925E-2</v>
-      </c>
-      <c r="F33" s="3">
-        <f t="shared" si="7"/>
-        <v>1.4354269541964046E-2</v>
-      </c>
-      <c r="G33" s="3">
-        <f t="shared" si="8"/>
-        <v>6.142954753488682E-3</v>
-      </c>
-      <c r="I33">
-        <v>0.99374109554146939</v>
-      </c>
-      <c r="J33">
-        <v>1.5041892562040341E-2</v>
-      </c>
-      <c r="K33" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L33" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M33" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A34" s="3">
-        <f t="shared" si="2"/>
-        <v>-1.5140103131496225</v>
-      </c>
-      <c r="B34" s="3">
-        <f t="shared" si="3"/>
-        <v>0.62731681642167003</v>
-      </c>
-      <c r="C34" s="3">
-        <f t="shared" si="4"/>
-        <v>0.39352638816541924</v>
-      </c>
-      <c r="D34" s="3">
-        <f t="shared" si="5"/>
-        <v>0.24686572100184917</v>
-      </c>
-      <c r="E34" s="3">
-        <f t="shared" si="6"/>
-        <v>0.15486301818252021</v>
-      </c>
-      <c r="F34" s="3">
-        <f t="shared" si="7"/>
-        <v>9.7148175547709784E-2</v>
-      </c>
-      <c r="G34" s="3">
-        <f t="shared" si="8"/>
-        <v>6.0942684205762827E-2</v>
-      </c>
-      <c r="I34">
-        <v>158.77237016887574</v>
-      </c>
-      <c r="J34">
-        <v>4</v>
-      </c>
-      <c r="K34" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L34" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M34" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A35" s="3">
-        <f t="shared" si="2"/>
-        <v>-0.99583285786358167</v>
-      </c>
-      <c r="B35" s="3">
-        <f t="shared" si="3"/>
-        <v>2.0357742859966395E-2</v>
-      </c>
-      <c r="C35" s="3">
-        <f t="shared" si="4"/>
-        <v>4.1443769435251275E-4</v>
-      </c>
-      <c r="D35" s="3">
-        <f t="shared" si="5"/>
-        <v>8.4370160131058014E-6</v>
-      </c>
-      <c r="E35" s="3">
-        <f t="shared" si="6"/>
-        <v>1.7175860250022678E-7</v>
-      </c>
-      <c r="F35" s="3">
-        <f t="shared" si="7"/>
-        <v>3.4966174636867979E-9</v>
-      </c>
-      <c r="G35" s="3">
-        <f t="shared" si="8"/>
-        <v>7.1183239205403715E-11</v>
-      </c>
-      <c r="I35">
-        <v>0.14369441348972553</v>
-      </c>
-      <c r="J35">
-        <v>9.05034127391858E-4</v>
-      </c>
-      <c r="K35" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L35" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M35" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A36" s="3">
-        <f t="shared" si="2"/>
-        <v>-1.1195466118006885</v>
-      </c>
-      <c r="B36" s="3">
-        <f t="shared" si="3"/>
-        <v>4.4668240736279084E-2</v>
-      </c>
-      <c r="C36" s="3">
-        <f t="shared" si="4"/>
-        <v>1.9952517304741824E-3</v>
-      </c>
-      <c r="D36" s="3">
-        <f t="shared" si="5"/>
-        <v>8.9124384626298214E-5</v>
-      </c>
-      <c r="E36" s="3">
-        <f t="shared" si="6"/>
-        <v>3.9810294679602194E-6</v>
-      </c>
-      <c r="F36" s="3">
-        <f t="shared" si="7"/>
-        <v>1.7782558265306813E-7</v>
-      </c>
-      <c r="G36" s="3">
-        <f t="shared" si="8"/>
-        <v>7.9431559350163408E-9</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A37" s="3">
-        <f t="shared" si="2"/>
-        <v>-1.1964851691771323</v>
-      </c>
-      <c r="B37" s="3">
-        <f t="shared" si="3"/>
-        <v>7.4206502741718167E-2</v>
-      </c>
-      <c r="C37" s="3">
-        <f t="shared" si="4"/>
-        <v>5.5066050491566262E-3</v>
-      </c>
-      <c r="D37" s="3">
-        <f t="shared" si="5"/>
-        <v>4.0862590267780026E-4</v>
-      </c>
-      <c r="E37" s="3">
-        <f t="shared" si="6"/>
-        <v>3.0322699167397249E-5</v>
-      </c>
-      <c r="F37" s="3">
-        <f t="shared" si="7"/>
-        <v>2.250141458901759E-6</v>
-      </c>
-      <c r="G37" s="3">
-        <f t="shared" si="8"/>
-        <v>1.6697512833924711E-7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A38" s="3">
-        <f t="shared" si="2"/>
-        <v>-1.262633231573862</v>
-      </c>
-      <c r="B38" s="3">
-        <f t="shared" si="3"/>
-        <v>0.1108619607139654</v>
-      </c>
-      <c r="C38" s="3">
-        <f t="shared" si="4"/>
-        <v>1.2290374333344806E-2</v>
-      </c>
-      <c r="D38" s="3">
-        <f t="shared" si="5"/>
-        <v>1.3625349965032006E-3</v>
-      </c>
-      <c r="E38" s="3">
-        <f t="shared" si="6"/>
-        <v>1.5105330125374079E-4</v>
-      </c>
-      <c r="F38" s="3">
-        <f t="shared" si="7"/>
-        <v>1.6746065149306992E-5</v>
-      </c>
-      <c r="G38" s="3">
-        <f t="shared" si="8"/>
-        <v>1.8565016166959768E-6</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A39" s="3">
-        <f t="shared" si="2"/>
-        <v>-1.3279221123422738</v>
-      </c>
-      <c r="B39" s="3">
-        <f t="shared" si="3"/>
-        <v>0.15755927594119148</v>
-      </c>
-      <c r="C39" s="3">
-        <f t="shared" si="4"/>
-        <v>2.482492543511252E-2</v>
-      </c>
-      <c r="D39" s="3">
-        <f t="shared" si="5"/>
-        <v>3.9113972768503964E-3</v>
-      </c>
-      <c r="E39" s="3">
-        <f t="shared" si="6"/>
-        <v>6.1627692285889653E-4</v>
-      </c>
-      <c r="F39" s="3">
-        <f t="shared" si="7"/>
-        <v>9.7100145744913251E-5</v>
-      </c>
-      <c r="G39" s="3">
-        <f t="shared" si="8"/>
-        <v>1.5299028657352696E-5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A40" s="3">
-        <f t="shared" si="2"/>
-        <v>-1.3820689432890265</v>
-      </c>
-      <c r="B40" s="3">
-        <f t="shared" si="3"/>
-        <v>0.21907988025838979</v>
-      </c>
-      <c r="C40" s="3">
-        <f t="shared" si="4"/>
-        <v>4.7995993934030409E-2</v>
-      </c>
-      <c r="D40" s="3">
-        <f t="shared" si="5"/>
-        <v>1.0514956603949785E-2</v>
-      </c>
-      <c r="E40" s="3">
-        <f t="shared" si="6"/>
-        <v>2.3036154337154838E-3</v>
-      </c>
-      <c r="F40" s="3">
-        <f t="shared" si="7"/>
-        <v>5.0467579337976683E-4</v>
-      </c>
-      <c r="G40" s="3">
-        <f t="shared" si="8"/>
-        <v>1.1056431238294719E-4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A41" s="3">
-        <f t="shared" si="2"/>
-        <v>-1.4035408629153976</v>
-      </c>
-      <c r="B41" s="3">
-        <f t="shared" si="3"/>
-        <v>0.30381347004705389</v>
-      </c>
-      <c r="C41" s="3">
-        <f t="shared" si="4"/>
-        <v>9.2302624582032117E-2</v>
-      </c>
-      <c r="D41" s="3">
-        <f t="shared" si="5"/>
-        <v>2.8042780668717675E-2</v>
-      </c>
-      <c r="E41" s="3">
-        <f t="shared" si="6"/>
-        <v>8.5197745047315594E-3</v>
-      </c>
-      <c r="F41" s="3">
-        <f t="shared" si="7"/>
-        <v>2.5884222563009149E-3</v>
-      </c>
-      <c r="G41" s="3">
-        <f t="shared" si="8"/>
-        <v>7.8639754763380569E-4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A42" s="3">
-        <f t="shared" si="2"/>
-        <v>-1.3581321650903104</v>
-      </c>
-      <c r="B42" s="3">
-        <f t="shared" si="3"/>
-        <v>0.42795314213168678</v>
-      </c>
-      <c r="C42" s="3">
-        <f t="shared" si="4"/>
-        <v>0.18314389186038371</v>
-      </c>
-      <c r="D42" s="3">
-        <f t="shared" si="5"/>
-        <v>7.8377003983877064E-2</v>
-      </c>
-      <c r="E42" s="3">
-        <f t="shared" si="6"/>
-        <v>3.3541685125767925E-2</v>
-      </c>
-      <c r="F42" s="3">
-        <f t="shared" si="7"/>
-        <v>1.4354269541964046E-2</v>
-      </c>
-      <c r="G42" s="3">
-        <f t="shared" si="8"/>
-        <v>6.142954753488682E-3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A43" s="3">
-        <f t="shared" si="2"/>
-        <v>-1.2154940293363214</v>
-      </c>
-      <c r="B43" s="3">
-        <f t="shared" si="3"/>
-        <v>0.62731681642167003</v>
-      </c>
-      <c r="C43" s="3">
-        <f t="shared" si="4"/>
-        <v>0.39352638816541924</v>
-      </c>
-      <c r="D43" s="3">
-        <f t="shared" si="5"/>
-        <v>0.24686572100184917</v>
-      </c>
-      <c r="E43" s="3">
-        <f t="shared" si="6"/>
-        <v>0.15486301818252021</v>
-      </c>
-      <c r="F43" s="3">
-        <f t="shared" si="7"/>
-        <v>9.7148175547709784E-2</v>
-      </c>
-      <c r="G43" s="3">
-        <f>B43^6</f>
-        <v>6.0942684205762827E-2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A44" s="3"/>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A45" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B46" t="s">
-        <v>41</v>
-      </c>
-      <c r="C46" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A47" s="3">
-        <v>0</v>
-      </c>
-      <c r="B47" s="3">
-        <f>$M$24+$L$24*A47+$K$24*A47^2+$J$24*A47^3+$I$24*A47^4</f>
-        <v>-1.1841321859959233</v>
-      </c>
-      <c r="C47" s="3">
-        <f>$M$31+$L$31*A47+$K$31*A47^2+$J$31*A47^3+$I$31*A47^4</f>
-        <v>-0.92232385110682458</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A48" s="3">
+      <c r="N47" s="8"/>
+      <c r="O47" s="8"/>
+      <c r="P47" s="8"/>
+      <c r="Q47" s="8"/>
+      <c r="R47" s="8"/>
+      <c r="S47" s="8"/>
+      <c r="T47" s="8"/>
+      <c r="U47" s="8"/>
+      <c r="V47" s="8"/>
+      <c r="W47" s="9"/>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A48" s="10">
         <v>0.05</v>
       </c>
-      <c r="B48" s="3">
-        <f>$M$24+$L$24*A48+$K$24*A48^2+$J$24*A48^3+$I$24*A48^4</f>
+      <c r="B48" s="11">
+        <f t="shared" ref="B48:B67" si="14">$I$24+$H$24*A48+$G$24*A48^2+$F$24*A48^4</f>
+        <v>-1.3255967863214211</v>
+      </c>
+      <c r="C48" s="11">
+        <f t="shared" ref="C48:C67" si="15">$I$31+$H$31*A48+$G$31*A48^2+$F$31*A48^4</f>
+        <v>-1.1139760472790725</v>
+      </c>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="9"/>
+      <c r="K48" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="L48" s="11">
+        <f>$W$24+$V$24*K48+$U$24*K48^2+$T$24*K48^3+$S$24*K48^4</f>
         <v>-1.3286402623759821</v>
       </c>
-      <c r="C48" s="3">
-        <f t="shared" ref="C48:C67" si="9">$M$31+$L$31*A48+$K$31*A48^2+$J$31*A48^3+$I$31*A48^4</f>
+      <c r="M48" s="11">
+        <f>$W$31+$V$31*K48+$U$31*K48^2+$T$31*K48^3+$S$31*K48^4</f>
         <v>-1.1179691976037367</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A49" s="3">
+      <c r="N48" s="8"/>
+      <c r="O48" s="8"/>
+      <c r="P48" s="8"/>
+      <c r="Q48" s="8"/>
+      <c r="R48" s="8"/>
+      <c r="S48" s="8"/>
+      <c r="T48" s="8"/>
+      <c r="U48" s="8"/>
+      <c r="V48" s="8"/>
+      <c r="W48" s="9"/>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A49" s="10">
         <v>0.1</v>
       </c>
-      <c r="B49" s="3">
-        <f>$M$24+$L$24*A49+$K$24*A49^2+$J$24*A49^3+$I$24*A49^4</f>
+      <c r="B49" s="11">
+        <f t="shared" si="14"/>
+        <v>-1.4120771516167678</v>
+      </c>
+      <c r="C49" s="11">
+        <f t="shared" si="15"/>
+        <v>-1.2323611876845952</v>
+      </c>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="9"/>
+      <c r="K49" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="L49" s="11">
+        <f>$W$24+$V$24*K49+$U$24*K49^2+$T$24*K49^3+$S$24*K49^4</f>
         <v>-1.4255438607064248</v>
       </c>
-      <c r="C49" s="3">
-        <f t="shared" si="9"/>
+      <c r="M49" s="11">
+        <f>$W$31+$V$31*K49+$U$31*K49^2+$T$31*K49^3+$S$31*K49^4</f>
         <v>-1.2483480174283126</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A50" s="3">
+      <c r="N49" s="8"/>
+      <c r="O49" s="8"/>
+      <c r="P49" s="8"/>
+      <c r="Q49" s="8"/>
+      <c r="R49" s="8"/>
+      <c r="S49" s="8"/>
+      <c r="T49" s="8"/>
+      <c r="U49" s="8"/>
+      <c r="V49" s="8"/>
+      <c r="W49" s="9"/>
+    </row>
+    <row r="50" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A50" s="10">
         <v>0.15</v>
       </c>
-      <c r="B50" s="3">
-        <f>$M$24+$L$24*A50+$K$24*A50^2+$J$24*A50^3+$I$24*A50^4</f>
+      <c r="B50" s="11">
+        <f t="shared" si="14"/>
+        <v>-1.4690507450545276</v>
+      </c>
+      <c r="C50" s="11">
+        <f t="shared" si="15"/>
+        <v>-1.3058992134393668</v>
+      </c>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="9"/>
+      <c r="K50" s="10">
+        <v>0.15</v>
+      </c>
+      <c r="L50" s="11">
+        <f>$W$24+$V$24*K50+$U$24*K50^2+$T$24*K50^3+$S$24*K50^4</f>
         <v>-1.4872590394856733</v>
       </c>
-      <c r="C50" s="3">
-        <f t="shared" si="9"/>
+      <c r="M50" s="11">
+        <f>$W$31+$V$31*K50+$U$31*K50^2+$T$31*K50^3+$S$31*K50^4</f>
         <v>-1.3290768864185218</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A51" s="3">
+      <c r="N50" s="8"/>
+      <c r="O50" s="8"/>
+      <c r="P50" s="8"/>
+      <c r="Q50" s="8"/>
+      <c r="R50" s="8"/>
+      <c r="S50" s="8"/>
+      <c r="T50" s="8"/>
+      <c r="U50" s="8"/>
+      <c r="V50" s="8"/>
+      <c r="W50" s="9"/>
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A51" s="10">
         <v>0.2</v>
       </c>
-      <c r="B51" s="3">
-        <f>$M$24+$L$24*A51+$K$24*A51^2+$J$24*A51^3+$I$24*A51^4</f>
+      <c r="B51" s="11">
+        <f t="shared" si="14"/>
+        <v>-1.498154168739086</v>
+      </c>
+      <c r="C51" s="11">
+        <f t="shared" si="15"/>
+        <v>-1.3370161333238892</v>
+      </c>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="8"/>
+      <c r="I51" s="9"/>
+      <c r="K51" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="L51" s="11">
+        <f>$W$24+$V$24*K51+$U$24*K51^2+$T$24*K51^3+$S$24*K51^4</f>
         <v>-1.524234384817815</v>
       </c>
-      <c r="C51" s="3">
-        <f t="shared" si="9"/>
+      <c r="M51" s="11">
+        <f>$W$31+$V$31*K51+$U$31*K51^2+$T$31*K51^3+$S$31*K51^4</f>
         <v>-1.373450674989745</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A52" s="3">
+      <c r="N51" s="8"/>
+      <c r="O51" s="8"/>
+      <c r="P51" s="8"/>
+      <c r="Q51" s="8"/>
+      <c r="R51" s="8"/>
+      <c r="S51" s="8"/>
+      <c r="T51" s="8"/>
+      <c r="U51" s="8"/>
+      <c r="V51" s="8"/>
+      <c r="W51" s="9"/>
+    </row>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A52" s="10">
         <v>0.25</v>
       </c>
-      <c r="B52" s="3">
-        <f>$M$24+$L$24*A52+$K$24*A52^2+$J$24*A52^3+$I$24*A52^4</f>
+      <c r="B52" s="11">
+        <f t="shared" si="14"/>
+        <v>-1.5016786656165824</v>
+      </c>
+      <c r="C52" s="11">
+        <f t="shared" si="15"/>
+        <v>-1.3291083596308655</v>
+      </c>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8"/>
+      <c r="I52" s="9"/>
+      <c r="K52" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="L52" s="11">
+        <f>$W$24+$V$24*K52+$U$24*K52^2+$T$24*K52^3+$S$24*K52^4</f>
         <v>-1.5449510104126047</v>
       </c>
-      <c r="C52" s="3">
-        <f t="shared" si="9"/>
+      <c r="M52" s="11">
+        <f>$W$31+$V$31*K52+$U$31*K52^2+$T$31*K52^3+$S$31*K52^4</f>
         <v>-1.3924425481347764</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A53" s="3">
+      <c r="N52" s="8"/>
+      <c r="O52" s="8"/>
+      <c r="P52" s="8"/>
+      <c r="Q52" s="8"/>
+      <c r="R52" s="8"/>
+      <c r="S52" s="8"/>
+      <c r="T52" s="8"/>
+      <c r="U52" s="8"/>
+      <c r="V52" s="8"/>
+      <c r="W52" s="9"/>
+    </row>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A53" s="10">
         <v>0.3</v>
       </c>
-      <c r="B53" s="3">
-        <f>$M$24+$L$24*A53+$K$24*A53^2+$J$24*A53^3+$I$24*A53^4</f>
+      <c r="B53" s="11">
+        <f t="shared" si="14"/>
+        <v>-1.4825701194749104</v>
+      </c>
+      <c r="C53" s="11">
+        <f t="shared" si="15"/>
+        <v>-1.286542708165199</v>
+      </c>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="8"/>
+      <c r="I53" s="9"/>
+      <c r="K53" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="L53" s="11">
+        <f>$W$24+$V$24*K53+$U$24*K53^2+$T$24*K53^3+$S$24*K53^4</f>
         <v>-1.5559225575854634</v>
       </c>
-      <c r="C53" s="3">
-        <f t="shared" si="9"/>
+      <c r="M53" s="11">
+        <f>$W$31+$V$31*K53+$U$31*K53^2+$T$31*K53^3+$S$31*K53^4</f>
         <v>-1.3947039654238211</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A54" s="3">
+      <c r="N53" s="8"/>
+      <c r="O53" s="8"/>
+      <c r="P53" s="8"/>
+      <c r="Q53" s="8"/>
+      <c r="R53" s="8"/>
+      <c r="S53" s="8"/>
+      <c r="T53" s="8"/>
+      <c r="U53" s="8"/>
+      <c r="V53" s="8"/>
+      <c r="W53" s="9"/>
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A54" s="10">
         <v>0.35</v>
       </c>
-      <c r="B54" s="3">
-        <f>$M$24+$L$24*A54+$K$24*A54^2+$J$24*A54^3+$I$24*A54^4</f>
+      <c r="B54" s="11">
+        <f t="shared" si="14"/>
+        <v>-1.4444290549437173</v>
+      </c>
+      <c r="C54" s="11">
+        <f t="shared" si="15"/>
+        <v>-1.2146563982439951</v>
+      </c>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="8"/>
+      <c r="I54" s="9"/>
+      <c r="K54" s="10">
+        <v>0.35</v>
+      </c>
+      <c r="L54" s="11">
+        <f>$W$24+$V$24*K54+$U$24*K54^2+$T$24*K54^3+$S$24*K54^4</f>
         <v>-1.5616951952574785</v>
       </c>
-      <c r="C54" s="3">
-        <f t="shared" si="9"/>
+      <c r="M54" s="11">
+        <f>$W$31+$V$31*K54+$U$31*K54^2+$T$31*K54^3+$S$31*K54^4</f>
         <v>-1.3865646810044976</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A55" s="3">
+      <c r="N54" s="8"/>
+      <c r="O54" s="8"/>
+      <c r="P54" s="8"/>
+      <c r="Q54" s="8"/>
+      <c r="R54" s="8"/>
+      <c r="S54" s="8"/>
+      <c r="T54" s="8"/>
+      <c r="U54" s="8"/>
+      <c r="V54" s="8"/>
+      <c r="W54" s="9"/>
+    </row>
+    <row r="55" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A55" s="10">
         <v>0.4</v>
       </c>
-      <c r="B55" s="3">
-        <f>$M$24+$L$24*A55+$K$24*A55^2+$J$24*A55^3+$I$24*A55^4</f>
+      <c r="B55" s="11">
+        <f t="shared" si="14"/>
+        <v>-1.391510637494406</v>
+      </c>
+      <c r="C55" s="11">
+        <f t="shared" si="15"/>
+        <v>-1.1197570526965583</v>
+      </c>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="8"/>
+      <c r="I55" s="9"/>
+      <c r="K55" s="10">
+        <v>0.4</v>
+      </c>
+      <c r="L55" s="11">
+        <f>$W$24+$V$24*K55+$U$24*K55^2+$T$24*K55^3+$S$24*K55^4</f>
         <v>-1.5648476199554051</v>
       </c>
-      <c r="C55" s="3">
-        <f t="shared" si="9"/>
+      <c r="M55" s="11">
+        <f>$W$31+$V$31*K55+$U$31*K55^2+$T$31*K55^3+$S$31*K55^4</f>
         <v>-1.3720327436018365</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A56" s="3">
+      <c r="N55" s="8"/>
+      <c r="O55" s="8"/>
+      <c r="P55" s="8"/>
+      <c r="Q55" s="8"/>
+      <c r="R55" s="8"/>
+      <c r="S55" s="8"/>
+      <c r="T55" s="8"/>
+      <c r="U55" s="8"/>
+      <c r="V55" s="8"/>
+      <c r="W55" s="9"/>
+    </row>
+    <row r="56" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A56" s="10">
         <v>0.45</v>
       </c>
-      <c r="B56" s="3">
-        <f>$M$24+$L$24*A56+$K$24*A56^2+$J$24*A56^3+$I$24*A56^4</f>
+      <c r="B56" s="11">
+        <f t="shared" si="14"/>
+        <v>-1.328724673440131</v>
+      </c>
+      <c r="C56" s="11">
+        <f t="shared" si="15"/>
+        <v>-1.0091226978643961</v>
+      </c>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c r="H56" s="8"/>
+      <c r="I56" s="9"/>
+      <c r="K56" s="10">
+        <v>0.45</v>
+      </c>
+      <c r="L56" s="11">
+        <f>$W$24+$V$24*K56+$U$24*K56^2+$T$24*K56^3+$S$24*K56^4</f>
         <v>-1.5659910558116632</v>
       </c>
-      <c r="C56" s="3">
-        <f t="shared" si="9"/>
+      <c r="M56" s="11">
+        <f>$W$31+$V$31*K56+$U$31*K56^2+$T$31*K56^3+$S$31*K56^4</f>
         <v>-1.3527944965182814</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A57" s="3">
+      <c r="N56" s="8"/>
+      <c r="O56" s="8"/>
+      <c r="P56" s="8"/>
+      <c r="Q56" s="8"/>
+      <c r="R56" s="8"/>
+      <c r="S56" s="8"/>
+      <c r="T56" s="8"/>
+      <c r="U56" s="8"/>
+      <c r="V56" s="8"/>
+      <c r="W56" s="9"/>
+    </row>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A57" s="10">
         <v>0.5</v>
       </c>
-      <c r="B57" s="3">
-        <f>$M$24+$L$24*A57+$K$24*A57^2+$J$24*A57^3+$I$24*A57^4</f>
+      <c r="B57" s="11">
+        <f t="shared" si="14"/>
+        <v>-1.2616356099358041</v>
+      </c>
+      <c r="C57" s="11">
+        <f t="shared" si="15"/>
+        <v>-0.8910017636012153</v>
+      </c>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c r="H57" s="8"/>
+      <c r="I57" s="9"/>
+      <c r="K57" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="L57" s="11">
+        <f>$W$24+$V$24*K57+$U$24*K57^2+$T$24*K57^3+$S$24*K57^4</f>
         <v>-1.5637692545643402</v>
       </c>
-      <c r="C57" s="3">
-        <f t="shared" si="9"/>
+      <c r="M57" s="11">
+        <f>$W$31+$V$31*K57+$U$31*K57^2+$T$31*K57^3+$S$31*K57^4</f>
         <v>-1.3282145776336853</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A58" s="3">
+      <c r="N57" s="8"/>
+      <c r="O57" s="8"/>
+      <c r="P57" s="8"/>
+      <c r="Q57" s="8"/>
+      <c r="R57" s="8"/>
+      <c r="S57" s="8"/>
+      <c r="T57" s="8"/>
+      <c r="U57" s="8"/>
+      <c r="V57" s="8"/>
+      <c r="W57" s="9"/>
+    </row>
+    <row r="58" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A58" s="10">
         <v>0.55000000000000004</v>
       </c>
-      <c r="B58" s="3">
-        <f>$M$24+$L$24*A58+$K$24*A58^2+$J$24*A58^3+$I$24*A58^4</f>
+      <c r="B58" s="11">
+        <f t="shared" si="14"/>
+        <v>-1.196462534978088</v>
+      </c>
+      <c r="C58" s="11">
+        <f t="shared" si="15"/>
+        <v>-0.774613083272923</v>
+      </c>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="8"/>
+      <c r="I58" s="9"/>
+      <c r="K58" s="10">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="L58" s="11">
+        <f>$W$24+$V$24*K58+$U$24*K58^2+$T$24*K58^3+$S$24*K58^4</f>
         <v>-1.5548584955571905</v>
       </c>
-      <c r="C58" s="3">
-        <f t="shared" si="9"/>
+      <c r="M58" s="11">
+        <f>$W$31+$V$31*K58+$U$31*K58^2+$T$31*K58^3+$S$31*K58^4</f>
         <v>-1.2953359194053169</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A59" s="3">
+      <c r="N58" s="8"/>
+      <c r="O58" s="8"/>
+      <c r="P58" s="8"/>
+      <c r="Q58" s="8"/>
+      <c r="R58" s="8"/>
+      <c r="S58" s="8"/>
+      <c r="T58" s="8"/>
+      <c r="U58" s="8"/>
+      <c r="V58" s="8"/>
+      <c r="W58" s="9"/>
+    </row>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A59" s="10">
         <v>0.6</v>
       </c>
-      <c r="B59" s="3">
-        <f>$M$24+$L$24*A59+$K$24*A59^2+$J$24*A59^3+$I$24*A59^4</f>
+      <c r="B59" s="11">
+        <f t="shared" si="14"/>
+        <v>-1.140079177405402</v>
+      </c>
+      <c r="C59" s="11">
+        <f t="shared" si="15"/>
+        <v>-0.67014589375762845</v>
+      </c>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c r="H59" s="8"/>
+      <c r="I59" s="9"/>
+      <c r="K59" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="L59" s="11">
+        <f>$W$24+$V$24*K59+$U$24*K59^2+$T$24*K59^3+$S$24*K59^4</f>
         <v>-1.5339675857396342</v>
       </c>
-      <c r="C59" s="3">
-        <f t="shared" si="9"/>
+      <c r="M59" s="11">
+        <f>$W$31+$V$31*K59+$U$31*K59^2+$T$31*K59^3+$S$31*K59^4</f>
         <v>-1.2488797488678558</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A60" s="3">
+      <c r="N59" s="8"/>
+      <c r="O59" s="8"/>
+      <c r="P59" s="8"/>
+      <c r="Q59" s="8"/>
+      <c r="R59" s="8"/>
+      <c r="S59" s="8"/>
+      <c r="T59" s="8"/>
+      <c r="U59" s="8"/>
+      <c r="V59" s="8"/>
+      <c r="W59" s="9"/>
+    </row>
+    <row r="60" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A60" s="10">
         <v>0.65</v>
       </c>
-      <c r="B60" s="3">
-        <f>$M$24+$L$24*A60+$K$24*A60^2+$J$24*A60^3+$I$24*A60^4</f>
+      <c r="B60" s="11">
+        <f t="shared" si="14"/>
+        <v>-1.1000139068979187</v>
+      </c>
+      <c r="C60" s="11">
+        <f t="shared" si="15"/>
+        <v>-0.58875983544564159</v>
+      </c>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c r="H60" s="8"/>
+      <c r="I60" s="9"/>
+      <c r="K60" s="10">
+        <v>0.65</v>
+      </c>
+      <c r="L60" s="11">
+        <f>$W$24+$V$24*K60+$U$24*K60^2+$T$24*K60^3+$S$24*K60^4</f>
         <v>-1.4938378596667592</v>
       </c>
-      <c r="C60" s="3">
-        <f t="shared" si="9"/>
+      <c r="M60" s="11">
+        <f>$W$31+$V$31*K60+$U$31*K60^2+$T$31*K60^3+$S$31*K60^4</f>
         <v>-1.1812455876333936</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A61" s="3">
+      <c r="N60" s="8"/>
+      <c r="O60" s="8"/>
+      <c r="P60" s="8"/>
+      <c r="Q60" s="8"/>
+      <c r="R60" s="8"/>
+      <c r="S60" s="8"/>
+      <c r="T60" s="8"/>
+      <c r="U60" s="8"/>
+      <c r="V60" s="8"/>
+      <c r="W60" s="9"/>
+    </row>
+    <row r="61" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A61" s="10">
         <v>0.7</v>
       </c>
-      <c r="B61" s="3">
-        <f>$M$24+$L$24*A61+$K$24*A61^2+$J$24*A61^3+$I$24*A61^4</f>
+      <c r="B61" s="11">
+        <f t="shared" si="14"/>
+        <v>-1.0844497339775636</v>
+      </c>
+      <c r="C61" s="11">
+        <f t="shared" si="15"/>
+        <v>-0.54258495223947389</v>
+      </c>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c r="H61" s="8"/>
+      <c r="I61" s="9"/>
+      <c r="K61" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="L61" s="11">
+        <f>$W$24+$V$24*K61+$U$24*K61^2+$T$24*K61^3+$S$24*K61^4</f>
         <v>-1.4252431794993177</v>
       </c>
-      <c r="C61" s="3">
-        <f t="shared" si="9"/>
+      <c r="M61" s="11">
+        <f>$W$31+$V$31*K61+$U$31*K61^2+$T$31*K61^3+$S$31*K61^4</f>
         <v>-1.0825112518914333</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A62" s="3">
+      <c r="N61" s="8"/>
+      <c r="O61" s="8"/>
+      <c r="P61" s="8"/>
+      <c r="Q61" s="8"/>
+      <c r="R61" s="8"/>
+      <c r="S61" s="8"/>
+      <c r="T61" s="8"/>
+      <c r="U61" s="8"/>
+      <c r="V61" s="8"/>
+      <c r="W61" s="9"/>
+    </row>
+    <row r="62" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A62" s="10">
         <v>0.75</v>
       </c>
-      <c r="B62" s="3">
-        <f>$M$24+$L$24*A62+$K$24*A62^2+$J$24*A62^3+$I$24*A62^4</f>
+      <c r="B62" s="11">
+        <f t="shared" si="14"/>
+        <v>-1.1022243100080191</v>
+      </c>
+      <c r="C62" s="11">
+        <f t="shared" si="15"/>
+        <v>-0.54472169155383465</v>
+      </c>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c r="H62" s="8"/>
+      <c r="I62" s="9"/>
+      <c r="K62" s="10">
+        <v>0.75</v>
+      </c>
+      <c r="L62" s="11">
+        <f>$W$24+$V$24*K62+$U$24*K62^2+$T$24*K62^3+$S$24*K62^4</f>
         <v>-1.3169899350037308</v>
       </c>
-      <c r="C62" s="3">
-        <f t="shared" si="9"/>
+      <c r="M62" s="11">
+        <f>$W$31+$V$31*K62+$U$31*K62^2+$T$31*K62^3+$S$31*K62^4</f>
         <v>-0.94043285240889407</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A63" s="3">
+      <c r="N62" s="8"/>
+      <c r="O62" s="8"/>
+      <c r="P62" s="8"/>
+      <c r="Q62" s="8"/>
+      <c r="R62" s="8"/>
+      <c r="S62" s="8"/>
+      <c r="T62" s="8"/>
+      <c r="U62" s="8"/>
+      <c r="V62" s="8"/>
+      <c r="W62" s="9"/>
+    </row>
+    <row r="63" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A63" s="10">
         <v>0.8</v>
       </c>
-      <c r="B63" s="3">
-        <f>$M$24+$L$24*A63+$K$24*A63^2+$J$24*A63^3+$I$24*A63^4</f>
+      <c r="B63" s="11">
+        <f t="shared" si="14"/>
+        <v>-1.1628299271947189</v>
+      </c>
+      <c r="C63" s="11">
+        <f t="shared" si="15"/>
+        <v>-0.60924090431563727</v>
+      </c>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c r="H63" s="8"/>
+      <c r="I63" s="9"/>
+      <c r="K63" s="10">
+        <v>0.8</v>
+      </c>
+      <c r="L63" s="11">
+        <f>$W$24+$V$24*K63+$U$24*K63^2+$T$24*K63^3+$S$24*K63^4</f>
         <v>-1.155917043552086</v>
       </c>
-      <c r="C63" s="3">
-        <f t="shared" si="9"/>
+      <c r="M63" s="11">
+        <f>$W$31+$V$31*K63+$U$31*K63^2+$T$31*K63^3+$S$31*K63^4</f>
         <v>-0.74044479453010137</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A64" s="3">
+      <c r="N63" s="8"/>
+      <c r="O63" s="8"/>
+      <c r="P63" s="8"/>
+      <c r="Q63" s="8"/>
+      <c r="R63" s="8"/>
+      <c r="S63" s="8"/>
+      <c r="T63" s="8"/>
+      <c r="U63" s="8"/>
+      <c r="V63" s="8"/>
+      <c r="W63" s="9"/>
+    </row>
+    <row r="64" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A64" s="10">
         <v>0.85</v>
       </c>
-      <c r="B64" s="3">
-        <f>$M$24+$L$24*A64+$K$24*A64^2+$J$24*A64^3+$I$24*A64^4</f>
+      <c r="B64" s="11">
+        <f t="shared" si="14"/>
+        <v>-1.2764135185848522</v>
+      </c>
+      <c r="C64" s="11">
+        <f t="shared" si="15"/>
+        <v>-0.75118384496399493</v>
+      </c>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c r="H64" s="8"/>
+      <c r="I64" s="9"/>
+      <c r="K64" s="10">
+        <v>0.85</v>
+      </c>
+      <c r="L64" s="11">
+        <f>$W$24+$V$24*K64+$U$24*K64^2+$T$24*K64^3+$S$24*K64^4</f>
         <v>-0.92689595012213921</v>
       </c>
-      <c r="C64" s="3">
-        <f t="shared" si="9"/>
+      <c r="M64" s="11">
+        <f>$W$31+$V$31*K64+$U$31*K64^2+$T$31*K64^3+$S$31*K64^4</f>
         <v>-0.46565977817680171</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A65" s="3">
+      <c r="N64" s="8"/>
+      <c r="O64" s="8"/>
+      <c r="P64" s="8"/>
+      <c r="Q64" s="8"/>
+      <c r="R64" s="8"/>
+      <c r="S64" s="8"/>
+      <c r="T64" s="8"/>
+      <c r="U64" s="8"/>
+      <c r="V64" s="8"/>
+      <c r="W64" s="9"/>
+    </row>
+    <row r="65" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A65" s="10">
         <v>0.9</v>
       </c>
-      <c r="B65" s="3">
-        <f>$M$24+$L$24*A65+$K$24*A65^2+$J$24*A65^3+$I$24*A65^4</f>
+      <c r="B65" s="11">
+        <f t="shared" si="14"/>
+        <v>-1.4537766580673623</v>
+      </c>
+      <c r="C65" s="11">
+        <f t="shared" si="15"/>
+        <v>-0.9865621714502204</v>
+      </c>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c r="H65" s="8"/>
+      <c r="I65" s="9"/>
+      <c r="K65" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="L65" s="11">
+        <f>$W$24+$V$24*K65+$U$24*K65^2+$T$24*K65^3+$S$24*K65^4</f>
         <v>-0.61283062729730453</v>
       </c>
-      <c r="C65" s="3">
-        <f t="shared" si="9"/>
+      <c r="M65" s="11">
+        <f>$W$31+$V$31*K65+$U$31*K65^2+$T$31*K65^3+$S$31*K65^4</f>
         <v>-9.6868797848143728E-2</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A66" s="3">
+      <c r="N65" s="8"/>
+      <c r="O65" s="8"/>
+      <c r="P65" s="8"/>
+      <c r="Q65" s="8"/>
+      <c r="R65" s="8"/>
+      <c r="S65" s="8"/>
+      <c r="T65" s="8"/>
+      <c r="U65" s="8"/>
+      <c r="V65" s="8"/>
+      <c r="W65" s="9"/>
+    </row>
+    <row r="66" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A66" s="10">
         <v>0.95</v>
       </c>
-      <c r="B66" s="3">
-        <f>$M$24+$L$24*A66+$K$24*A66^2+$J$24*A66^3+$I$24*A66^4</f>
+      <c r="B66" s="11">
+        <f t="shared" si="14"/>
+        <v>-1.706375560372948</v>
+      </c>
+      <c r="C66" s="11">
+        <f t="shared" si="15"/>
+        <v>-1.3323579452378311</v>
+      </c>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c r="H66" s="8"/>
+      <c r="I66" s="9"/>
+      <c r="K66" s="10">
+        <v>0.95</v>
+      </c>
+      <c r="L66" s="11">
+        <f>$W$24+$V$24*K66+$U$24*K66^2+$T$24*K66^3+$S$24*K66^4</f>
         <v>-0.1946575752666746</v>
       </c>
-      <c r="C66" s="3">
-        <f t="shared" si="9"/>
+      <c r="M66" s="11">
+        <f>$W$31+$V$31*K66+$U$31*K66^2+$T$31*K66^3+$S$31*K66^4</f>
         <v>0.38745885737930941</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A67" s="3">
+      <c r="N66" s="8"/>
+      <c r="O66" s="8"/>
+      <c r="P66" s="8"/>
+      <c r="Q66" s="8"/>
+      <c r="R66" s="8"/>
+      <c r="S66" s="8"/>
+      <c r="T66" s="8"/>
+      <c r="U66" s="8"/>
+      <c r="V66" s="8"/>
+      <c r="W66" s="9"/>
+    </row>
+    <row r="67" spans="1:23" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="12">
         <v>1</v>
       </c>
-      <c r="B67" s="3">
-        <f>$M$24+$L$24*A67+$K$24*A67^2+$J$24*A67^3+$I$24*A67^4</f>
+      <c r="B67" s="13">
+        <f t="shared" si="14"/>
+        <v>-2.0463210810740584</v>
+      </c>
+      <c r="C67" s="13">
+        <f t="shared" si="15"/>
+        <v>-1.8065236313025386</v>
+      </c>
+      <c r="D67" s="14"/>
+      <c r="E67" s="14"/>
+      <c r="F67" s="14"/>
+      <c r="G67" s="14"/>
+      <c r="H67" s="14"/>
+      <c r="I67" s="15"/>
+      <c r="K67" s="12">
+        <v>1</v>
+      </c>
+      <c r="L67" s="13">
+        <f>$W$24+$V$24*K67+$U$24*K67^2+$T$24*K67^3+$S$24*K67^4</f>
         <v>0.34865417817499988</v>
       </c>
-      <c r="C67" s="3">
-        <f t="shared" si="9"/>
+      <c r="M67" s="13">
+        <f>$W$31+$V$31*K67+$U$31*K67^2+$T$31*K67^3+$S$31*K67^4</f>
         <v>1.0111756038515729</v>
       </c>
+      <c r="N67" s="14"/>
+      <c r="O67" s="14"/>
+      <c r="P67" s="14"/>
+      <c r="Q67" s="14"/>
+      <c r="R67" s="14"/>
+      <c r="S67" s="14"/>
+      <c r="T67" s="14"/>
+      <c r="U67" s="14"/>
+      <c r="V67" s="14"/>
+      <c r="W67" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4561EDEF-762E-46F7-B425-C746E2E16ECA}">
+  <dimension ref="A1:M56"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T23" sqref="T23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.08984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.6328125" customWidth="1"/>
+    <col min="10" max="10" width="14.7265625" customWidth="1"/>
+    <col min="12" max="12" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.08984375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.90625" customWidth="1"/>
+    <col min="16" max="16" width="9.08984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="str">
+        <f>過剰混合ギブズエネルギー!A1</f>
+        <v>x2 [-]</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" t="str">
+        <f>過剰混合ギブズエネルギー!B1</f>
+        <v>温度 [K]</v>
+      </c>
+      <c r="G1" t="str">
+        <f>過剰混合ギブズエネルギー!D1</f>
+        <v>GM [J/mol]</v>
+      </c>
+      <c r="H1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L1" t="s">
+        <v>47</v>
+      </c>
+      <c r="M1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <f t="shared" ref="A2:A20" si="0">1 - B2</f>
+        <v>9.9999999999999978E-2</v>
+      </c>
+      <c r="B2">
+        <f>過剰混合ギブズエネルギー!A2</f>
+        <v>0.9</v>
+      </c>
+      <c r="C2" s="3">
+        <f t="shared" ref="C2:C20" si="1">A2/(A2+1/$L$9*B2)</f>
+        <v>2.0357742859966395E-2</v>
+      </c>
+      <c r="D2" s="3">
+        <f t="shared" ref="D2:D20" si="2">B2/($L$9*A2+B2)</f>
+        <v>0.97964225714003361</v>
+      </c>
+      <c r="E2" s="3">
+        <f>SUM(C2:D2)</f>
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <f>過剰混合ギブズエネルギー!B2</f>
+        <v>298.14440000000002</v>
+      </c>
+      <c r="G2">
+        <f>過剰混合ギブズエネルギー!D2</f>
+        <v>-519</v>
+      </c>
+      <c r="H2" s="3">
+        <f>1/(A2*D2)*(A2*LN(A2/C2)+B2*LN(B2/D2)+G2/$L$2/F2)</f>
+        <v>-1.2913766714255368</v>
+      </c>
+      <c r="J2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2">
+        <v>8.3144626200000005</v>
+      </c>
+      <c r="M2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <f t="shared" si="0"/>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="B3">
+        <f>過剰混合ギブズエネルギー!A3</f>
+        <v>0.8</v>
+      </c>
+      <c r="C3" s="3">
+        <f t="shared" si="1"/>
+        <v>4.4668240736279084E-2</v>
+      </c>
+      <c r="D3" s="3">
+        <f t="shared" si="2"/>
+        <v>0.95533175926372083</v>
+      </c>
+      <c r="E3" s="3">
+        <f t="shared" ref="E3:E20" si="3">SUM(C3:D3)</f>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="F3">
+        <f>過剰混合ギブズエネルギー!B3</f>
+        <v>298.14440000000002</v>
+      </c>
+      <c r="G3">
+        <f>過剰混合ギブズエネルギー!D3</f>
+        <v>-992</v>
+      </c>
+      <c r="H3" s="3">
+        <f t="shared" ref="H3:H20" si="4">1/(A3*D3)*(A3*LN(A3/C3)+B3*LN(B3/D3)+G3/$L$2/F3)</f>
+        <v>-1.2682632921583279</v>
+      </c>
+      <c r="J3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3">
+        <v>1000</v>
+      </c>
+      <c r="M3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <f t="shared" si="0"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="B4">
+        <f>過剰混合ギブズエネルギー!A4</f>
+        <v>0.7</v>
+      </c>
+      <c r="C4" s="3">
+        <f t="shared" si="1"/>
+        <v>7.4206502741718167E-2</v>
+      </c>
+      <c r="D4" s="3">
+        <f t="shared" si="2"/>
+        <v>0.92579349725828175</v>
+      </c>
+      <c r="E4" s="3">
+        <f t="shared" si="3"/>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="F4">
+        <f>過剰混合ギブズエネルギー!B4</f>
+        <v>298.14440000000002</v>
+      </c>
+      <c r="G4">
+        <f>過剰混合ギブズエネルギー!D4</f>
+        <v>-1485</v>
+      </c>
+      <c r="H4" s="3">
+        <f t="shared" si="4"/>
+        <v>-1.3526195120999391</v>
+      </c>
+      <c r="J4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4">
+        <v>1030</v>
+      </c>
+      <c r="M4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+      <c r="B5">
+        <f>過剰混合ギブズエネルギー!A5</f>
+        <v>0.6</v>
+      </c>
+      <c r="C5" s="3">
+        <f t="shared" si="1"/>
+        <v>0.1108619607139654</v>
+      </c>
+      <c r="D5" s="3">
+        <f t="shared" si="2"/>
+        <v>0.88913803928603463</v>
+      </c>
+      <c r="E5" s="3">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <f>過剰混合ギブズエネルギー!B5</f>
+        <v>298.14440000000002</v>
+      </c>
+      <c r="G5">
+        <f>過剰混合ギブズエネルギー!D5</f>
+        <v>-1967</v>
+      </c>
+      <c r="H5" s="3">
+        <f t="shared" si="4"/>
+        <v>-1.4514506205618123</v>
+      </c>
+      <c r="J5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5">
+        <v>18</v>
+      </c>
+      <c r="M5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="B6">
+        <f>過剰混合ギブズエネルギー!A6</f>
+        <v>0.5</v>
+      </c>
+      <c r="C6" s="3">
+        <f t="shared" si="1"/>
+        <v>0.15755927594119148</v>
+      </c>
+      <c r="D6" s="3">
+        <f t="shared" si="2"/>
+        <v>0.84244072405880854</v>
+      </c>
+      <c r="E6" s="3">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <f>過剰混合ギブズエネルギー!B6</f>
+        <v>298.14440000000002</v>
+      </c>
+      <c r="G6">
+        <f>過剰混合ギブズエネルギー!D6</f>
+        <v>-2380</v>
+      </c>
+      <c r="H6" s="3">
+        <f t="shared" si="4"/>
+        <v>-1.5278075302222651</v>
+      </c>
+      <c r="J6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L6">
+        <v>99.13</v>
+      </c>
+      <c r="M6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>0.6</v>
+      </c>
+      <c r="B7">
+        <f>過剰混合ギブズエネルギー!A7</f>
+        <v>0.4</v>
+      </c>
+      <c r="C7" s="3">
+        <f t="shared" si="1"/>
+        <v>0.21907988025838979</v>
+      </c>
+      <c r="D7" s="3">
+        <f t="shared" si="2"/>
+        <v>0.78092011974161024</v>
+      </c>
+      <c r="E7" s="3">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <f>過剰混合ギブズエネルギー!B7</f>
+        <v>298.14440000000002</v>
+      </c>
+      <c r="G7">
+        <f>過剰混合ギブズエネルギー!D7</f>
+        <v>-2660</v>
+      </c>
+      <c r="H7" s="3">
+        <f t="shared" si="4"/>
+        <v>-1.5711368963773451</v>
+      </c>
+      <c r="J7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K7" t="s">
+        <v>9</v>
+      </c>
+      <c r="L7" s="3">
+        <v>1.8E-5</v>
+      </c>
+      <c r="M7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>0.66999999999999993</v>
+      </c>
+      <c r="B8">
+        <f>過剰混合ギブズエネルギー!A8</f>
+        <v>0.33</v>
+      </c>
+      <c r="C8" s="3">
+        <f t="shared" si="1"/>
+        <v>0.27521618621592697</v>
+      </c>
+      <c r="D8" s="3">
+        <f t="shared" si="2"/>
+        <v>0.72478381378407308</v>
+      </c>
+      <c r="E8" s="3">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <f>過剰混合ギブズエネルギー!B8</f>
+        <v>298.14440000000002</v>
+      </c>
+      <c r="G8">
+        <f>過剰混合ギブズエネルギー!D8</f>
+        <v>-2600</v>
+      </c>
+      <c r="H8" s="3">
+        <f t="shared" si="4"/>
+        <v>-1.466979086078777</v>
+      </c>
+      <c r="J8" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="3">
+        <f>L6*0.001/L4</f>
+        <v>9.6242718446601938E-5</v>
+      </c>
+      <c r="M8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>0.7</v>
+      </c>
+      <c r="B9">
+        <f>過剰混合ギブズエネルギー!A9</f>
+        <v>0.3</v>
+      </c>
+      <c r="C9" s="3">
+        <f t="shared" si="1"/>
+        <v>0.30381347004705389</v>
+      </c>
+      <c r="D9" s="3">
+        <f t="shared" si="2"/>
+        <v>0.69618652995294616</v>
+      </c>
+      <c r="E9" s="3">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <f>過剰混合ギブズエネルギー!B9</f>
+        <v>298.14440000000002</v>
+      </c>
+      <c r="G9">
+        <f>過剰混合ギブズエネルギー!D9</f>
+        <v>-2739</v>
+      </c>
+      <c r="H9" s="3">
+        <f t="shared" si="4"/>
+        <v>-1.5866128909409316</v>
+      </c>
+      <c r="K9" t="s">
+        <v>23</v>
+      </c>
+      <c r="L9" s="3">
+        <f>L7/L8</f>
+        <v>0.18702713608393021</v>
+      </c>
+      <c r="M9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+      <c r="B10">
+        <f>過剰混合ギブズエネルギー!A10</f>
+        <v>0.2</v>
+      </c>
+      <c r="C10" s="3">
+        <f t="shared" si="1"/>
+        <v>0.42795314213168678</v>
+      </c>
+      <c r="D10" s="3">
+        <f t="shared" si="2"/>
+        <v>0.57204685786831322</v>
+      </c>
+      <c r="E10" s="3">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <f>過剰混合ギブズエネルギー!B10</f>
+        <v>298.14440000000002</v>
+      </c>
+      <c r="G10">
+        <f>過剰混合ギブズエネルギー!D10</f>
+        <v>-2505</v>
+      </c>
+      <c r="H10" s="3">
+        <f t="shared" si="4"/>
+        <v>-1.5737934726088458</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+      <c r="B11">
+        <f>過剰混合ギブズエネルギー!A11</f>
+        <v>0.1</v>
+      </c>
+      <c r="C11" s="3">
+        <f t="shared" si="1"/>
+        <v>0.62731681642167003</v>
+      </c>
+      <c r="D11" s="3">
+        <f t="shared" si="2"/>
+        <v>0.37268318357832997</v>
+      </c>
+      <c r="E11" s="3">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <f>過剰混合ギブズエネルギー!B11</f>
+        <v>298.14440000000002</v>
+      </c>
+      <c r="G11">
+        <f>過剰混合ギブズエネルギー!D11</f>
+        <v>-1738</v>
+      </c>
+      <c r="H11" s="3">
+        <f t="shared" si="4"/>
+        <v>-1.5140103131496225</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>9.9999999999999978E-2</v>
+      </c>
+      <c r="B12">
+        <f>過剰混合ギブズエネルギー!A18</f>
+        <v>0.9</v>
+      </c>
+      <c r="C12" s="3">
+        <f t="shared" si="1"/>
+        <v>2.0357742859966395E-2</v>
+      </c>
+      <c r="D12" s="3">
+        <f t="shared" si="2"/>
+        <v>0.97964225714003361</v>
+      </c>
+      <c r="E12" s="3">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <f>過剰混合ギブズエネルギー!B18</f>
+        <v>307.99160000000001</v>
+      </c>
+      <c r="G12">
+        <f>過剰混合ギブズエネルギー!D18</f>
+        <v>-462</v>
+      </c>
+      <c r="H12" s="3">
+        <f t="shared" si="4"/>
+        <v>-0.99583285786358167</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="B13">
+        <f>過剰混合ギブズエネルギー!A19</f>
+        <v>0.8</v>
+      </c>
+      <c r="C13" s="3">
+        <f t="shared" si="1"/>
+        <v>4.4668240736279084E-2</v>
+      </c>
+      <c r="D13" s="3">
+        <f t="shared" si="2"/>
+        <v>0.95533175926372083</v>
+      </c>
+      <c r="E13" s="3">
+        <f t="shared" si="3"/>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="F13">
+        <f>過剰混合ギブズエネルギー!B19</f>
+        <v>307.99160000000001</v>
+      </c>
+      <c r="G13">
+        <f>過剰混合ギブズエネルギー!D19</f>
+        <v>-952</v>
+      </c>
+      <c r="H13" s="3">
+        <f t="shared" si="4"/>
+        <v>-1.1195466118006885</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="B14">
+        <f>過剰混合ギブズエネルギー!A20</f>
+        <v>0.7</v>
+      </c>
+      <c r="C14" s="3">
+        <f t="shared" si="1"/>
+        <v>7.4206502741718167E-2</v>
+      </c>
+      <c r="D14" s="3">
+        <f t="shared" si="2"/>
+        <v>0.92579349725828175</v>
+      </c>
+      <c r="E14" s="3">
+        <f t="shared" si="3"/>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="F14">
+        <f>過剰混合ギブズエネルギー!B20</f>
+        <v>307.99160000000001</v>
+      </c>
+      <c r="G14">
+        <f>過剰混合ギブズエネルギー!D20</f>
+        <v>-1423</v>
+      </c>
+      <c r="H14" s="3">
+        <f t="shared" si="4"/>
+        <v>-1.1964851691771323</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+      <c r="B15">
+        <f>過剰混合ギブズエネルギー!A21</f>
+        <v>0.6</v>
+      </c>
+      <c r="C15" s="3">
+        <f t="shared" si="1"/>
+        <v>0.1108619607139654</v>
+      </c>
+      <c r="D15" s="3">
+        <f t="shared" si="2"/>
+        <v>0.88913803928603463</v>
+      </c>
+      <c r="E15" s="3">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <f>過剰混合ギブズエネルギー!B21</f>
+        <v>307.99160000000001</v>
+      </c>
+      <c r="G15">
+        <f>過剰混合ギブズエネルギー!D21</f>
+        <v>-1860</v>
+      </c>
+      <c r="H15" s="3">
+        <f t="shared" si="4"/>
+        <v>-1.262633231573862</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="B16">
+        <f>過剰混合ギブズエネルギー!A22</f>
+        <v>0.5</v>
+      </c>
+      <c r="C16" s="3">
+        <f t="shared" si="1"/>
+        <v>0.15755927594119148</v>
+      </c>
+      <c r="D16" s="3">
+        <f t="shared" si="2"/>
+        <v>0.84244072405880854</v>
+      </c>
+      <c r="E16" s="3">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <f>過剰混合ギブズエネルギー!B22</f>
+        <v>307.99160000000001</v>
+      </c>
+      <c r="G16">
+        <f>過剰混合ギブズエネルギー!D22</f>
+        <v>-2243</v>
+      </c>
+      <c r="H16" s="3">
+        <f t="shared" si="4"/>
+        <v>-1.3279221123422738</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>0.6</v>
+      </c>
+      <c r="B17">
+        <f>過剰混合ギブズエネルギー!A23</f>
+        <v>0.4</v>
+      </c>
+      <c r="C17" s="3">
+        <f t="shared" si="1"/>
+        <v>0.21907988025838979</v>
+      </c>
+      <c r="D17" s="3">
+        <f t="shared" si="2"/>
+        <v>0.78092011974161024</v>
+      </c>
+      <c r="E17" s="3">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <f>過剰混合ギブズエネルギー!B23</f>
+        <v>307.99160000000001</v>
+      </c>
+      <c r="G17">
+        <f>過剰混合ギブズエネルギー!D23</f>
+        <v>-2521</v>
+      </c>
+      <c r="H17" s="3">
+        <f t="shared" si="4"/>
+        <v>-1.3820689432890265</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <f t="shared" si="0"/>
+        <v>0.7</v>
+      </c>
+      <c r="B18">
+        <f>過剰混合ギブズエネルギー!A24</f>
+        <v>0.3</v>
+      </c>
+      <c r="C18" s="3">
+        <f t="shared" si="1"/>
+        <v>0.30381347004705389</v>
+      </c>
+      <c r="D18" s="3">
+        <f t="shared" si="2"/>
+        <v>0.69618652995294616</v>
+      </c>
+      <c r="E18" s="3">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <f>過剰混合ギブズエネルギー!B24</f>
+        <v>307.99160000000001</v>
+      </c>
+      <c r="G18">
+        <f>過剰混合ギブズエネルギー!D24</f>
+        <v>-2601</v>
+      </c>
+      <c r="H18" s="3">
+        <f t="shared" si="4"/>
+        <v>-1.4035408629153976</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+      <c r="B19">
+        <f>過剰混合ギブズエネルギー!A25</f>
+        <v>0.2</v>
+      </c>
+      <c r="C19" s="3">
+        <f t="shared" si="1"/>
+        <v>0.42795314213168678</v>
+      </c>
+      <c r="D19" s="3">
+        <f t="shared" si="2"/>
+        <v>0.57204685786831322</v>
+      </c>
+      <c r="E19" s="3">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <f>過剰混合ギブズエネルギー!B25</f>
+        <v>307.99160000000001</v>
+      </c>
+      <c r="G19">
+        <f>過剰混合ギブズエネルギー!D25</f>
+        <v>-2335</v>
+      </c>
+      <c r="H19" s="3">
+        <f t="shared" si="4"/>
+        <v>-1.3581321650903104</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+      <c r="B20">
+        <f>過剰混合ギブズエネルギー!A26</f>
+        <v>0.1</v>
+      </c>
+      <c r="C20" s="3">
+        <f t="shared" si="1"/>
+        <v>0.62731681642167003</v>
+      </c>
+      <c r="D20" s="3">
+        <f t="shared" si="2"/>
+        <v>0.37268318357832997</v>
+      </c>
+      <c r="E20" s="3">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <f>過剰混合ギブズエネルギー!B26</f>
+        <v>307.99160000000001</v>
+      </c>
+      <c r="G20">
+        <f>過剰混合ギブズエネルギー!D26</f>
+        <v>-1539</v>
+      </c>
+      <c r="H20" s="3">
+        <f t="shared" si="4"/>
+        <v>-1.2154940293363214</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="6"/>
+      <c r="H22" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="6"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A23" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F23" s="9">
+        <v>-1.2998894928173064</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="J23" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="M23" s="9">
+        <v>7.5926565555915007</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A24" s="10">
+        <f>D2</f>
+        <v>0.97964225714003361</v>
+      </c>
+      <c r="B24" s="11">
+        <f>$F$23+$F$24/(1-$F$25*A24)</f>
+        <v>-1.4176607233791367</v>
+      </c>
+      <c r="C24" s="11">
+        <f>(B24-H2)^2</f>
+        <v>1.5947661777819526E-2</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F24" s="9">
+        <v>-11.655138643936906</v>
+      </c>
+      <c r="H24" s="10">
+        <f>D12</f>
+        <v>0.97964225714003361</v>
+      </c>
+      <c r="I24" s="11">
+        <f>$M$23+$M$24/(1-$M$25*H24)</f>
+        <v>-1.1933324841424939</v>
+      </c>
+      <c r="J24" s="11">
+        <f>(I24-H12)^2</f>
+        <v>3.9006102380310013E-2</v>
+      </c>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="M24" s="9">
+        <v>-9.0753531405384731</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A25" s="10">
+        <f t="shared" ref="A25:A34" si="5">D3</f>
+        <v>0.95533175926372083</v>
+      </c>
+      <c r="B25" s="11">
+        <f>$F$23+$F$24/(1-$F$25*A25)</f>
+        <v>-1.420626623157103</v>
+      </c>
+      <c r="C25" s="11">
+        <f t="shared" ref="C25:C33" si="6">(B25-H3)^2</f>
+        <v>2.3214584633042296E-2</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F25" s="9">
+        <v>-100</v>
+      </c>
+      <c r="H25" s="10">
+        <f t="shared" ref="H25:H33" si="7">D13</f>
+        <v>0.95533175926372083</v>
+      </c>
+      <c r="I25" s="11">
+        <f t="shared" ref="I25:I33" si="8">$M$23+$M$24/(1-$M$25*H25)</f>
+        <v>-1.2002898026178732</v>
+      </c>
+      <c r="J25" s="11">
+        <f t="shared" ref="J25:J32" si="9">(I25-H13)^2</f>
+        <v>6.5194628633403039E-3</v>
+      </c>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="M25" s="9">
+        <v>-3.361913097314962E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A26" s="10">
+        <f t="shared" si="5"/>
+        <v>0.92579349725828175</v>
+      </c>
+      <c r="B26" s="11">
+        <f>$F$23+$F$24/(1-$F$25*A26)</f>
+        <v>-1.4244376829691348</v>
+      </c>
+      <c r="C26" s="11">
+        <f t="shared" si="6"/>
+        <v>5.1578496669969784E-3</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="9"/>
+      <c r="H26" s="10">
+        <f t="shared" si="7"/>
+        <v>0.92579349725828175</v>
+      </c>
+      <c r="I26" s="11">
+        <f t="shared" si="8"/>
+        <v>-1.2087580744946758</v>
+      </c>
+      <c r="J26" s="11">
+        <f t="shared" si="9"/>
+        <v>1.5062420493338596E-4</v>
+      </c>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="9"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A27" s="10">
+        <f t="shared" si="5"/>
+        <v>0.88913803928603463</v>
+      </c>
+      <c r="B27" s="11">
+        <f>$F$23+$F$24/(1-$F$25*A27)</f>
+        <v>-1.4295151802500361</v>
+      </c>
+      <c r="C27" s="11">
+        <f t="shared" si="6"/>
+        <v>4.8116354167149585E-4</v>
+      </c>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F27" s="16">
+        <f>SUM(C24:C33)*1000</f>
+        <v>96.948243941076043</v>
+      </c>
+      <c r="H27" s="10">
+        <f t="shared" si="7"/>
+        <v>0.88913803928603463</v>
+      </c>
+      <c r="I27" s="11">
+        <f t="shared" si="8"/>
+        <v>-1.219289469659901</v>
+      </c>
+      <c r="J27" s="11">
+        <f t="shared" si="9"/>
+        <v>1.8786816968541311E-3</v>
+      </c>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="M27" s="16">
+        <f>SUM(J24:J32)*1000</f>
+        <v>116.57589583259629</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A28" s="10">
+        <f t="shared" si="5"/>
+        <v>0.84244072405880854</v>
+      </c>
+      <c r="B28" s="11">
+        <f>$F$23+$F$24/(1-$F$25*A28)</f>
+        <v>-1.436616168526113</v>
+      </c>
+      <c r="C28" s="11">
+        <f>(B28-H6)^2</f>
+        <v>8.3158644479984483E-3</v>
+      </c>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="9"/>
+      <c r="H28" s="10">
+        <f t="shared" si="7"/>
+        <v>0.84244072405880854</v>
+      </c>
+      <c r="I28" s="11">
+        <f t="shared" si="8"/>
+        <v>-1.2327425285642475</v>
+      </c>
+      <c r="J28" s="11">
+        <f t="shared" si="9"/>
+        <v>9.0591531681583209E-3</v>
+      </c>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="9"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A29" s="10">
+        <f t="shared" si="5"/>
+        <v>0.78092011974161024</v>
+      </c>
+      <c r="B29" s="11">
+        <f>$F$23+$F$24/(1-$F$25*A29)</f>
+        <v>-1.4472512598658496</v>
+      </c>
+      <c r="C29" s="11">
+        <f t="shared" si="6"/>
+        <v>1.5347650933858396E-2</v>
+      </c>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="9"/>
+      <c r="H29" s="10">
+        <f t="shared" si="7"/>
+        <v>0.78092011974161024</v>
+      </c>
+      <c r="I29" s="11">
+        <f t="shared" si="8"/>
+        <v>-1.2505288700994468</v>
+      </c>
+      <c r="J29" s="11">
+        <f t="shared" si="9"/>
+        <v>1.7302790854719991E-2</v>
+      </c>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="9"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A30" s="10">
+        <f t="shared" si="5"/>
+        <v>0.72478381378407308</v>
+      </c>
+      <c r="B30" s="11">
+        <f>$F$23+$F$24/(1-$F$25*A30)</f>
+        <v>-1.4585094627362674</v>
+      </c>
+      <c r="C30" s="11">
+        <f t="shared" si="6"/>
+        <v>7.1734519563984651E-5</v>
+      </c>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="9"/>
+      <c r="H30" s="10">
+        <f t="shared" si="7"/>
+        <v>0.69618652995294616</v>
+      </c>
+      <c r="I30" s="11">
+        <f t="shared" si="8"/>
+        <v>-1.2751440609336901</v>
+      </c>
+      <c r="J30" s="11">
+        <f t="shared" si="9"/>
+        <v>1.6485738759129794E-2</v>
+      </c>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="9"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A31" s="10">
+        <f t="shared" si="5"/>
+        <v>0.69618652995294616</v>
+      </c>
+      <c r="B31" s="11">
+        <f>$F$23+$F$24/(1-$F$25*A31)</f>
+        <v>-1.4649328368855301</v>
+      </c>
+      <c r="C31" s="11">
+        <f t="shared" si="6"/>
+        <v>1.4806035554925431E-2</v>
+      </c>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="9"/>
+      <c r="H31" s="10">
+        <f t="shared" si="7"/>
+        <v>0.57204685786831322</v>
+      </c>
+      <c r="I31" s="11">
+        <f t="shared" si="8"/>
+        <v>-1.3114552161971398</v>
+      </c>
+      <c r="J31" s="11">
+        <f t="shared" si="9"/>
+        <v>2.1787375579756644E-3</v>
+      </c>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="9"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A32" s="10">
+        <f t="shared" si="5"/>
+        <v>0.57204685786831322</v>
+      </c>
+      <c r="B32" s="11">
+        <f>$F$23+$F$24/(1-$F$25*A32)</f>
+        <v>-1.5001334849698051</v>
+      </c>
+      <c r="C32" s="11">
+        <f t="shared" si="6"/>
+        <v>5.4257937789836275E-3</v>
+      </c>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="9"/>
+      <c r="H32" s="10">
+        <f t="shared" si="7"/>
+        <v>0.37268318357832997</v>
+      </c>
+      <c r="I32" s="11">
+        <f t="shared" si="8"/>
+        <v>-1.3703959478111249</v>
+      </c>
+      <c r="J32" s="11">
+        <f t="shared" si="9"/>
+        <v>2.399460434717467E-2</v>
+      </c>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="9"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A33" s="10">
+        <f t="shared" si="5"/>
+        <v>0.37268318357832997</v>
+      </c>
+      <c r="B33" s="11">
+        <f>$F$23+$F$24/(1-$F$25*A33)</f>
+        <v>-1.6044531408708733</v>
+      </c>
+      <c r="C33" s="11">
+        <f t="shared" si="6"/>
+        <v>8.1799050862158499E-3</v>
+      </c>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="9"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="9"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A34" s="10"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="9"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="9"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A35" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="9"/>
+      <c r="H35" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I35" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="9"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A36" s="10">
+        <v>0</v>
+      </c>
+      <c r="B36" s="11">
+        <f>$F$23+$F$24/(1-$F$25*(1-A36))</f>
+        <v>-1.4152869051335133</v>
+      </c>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="9"/>
+      <c r="H36" s="10">
+        <v>0</v>
+      </c>
+      <c r="I36" s="11">
+        <f>$M$23+$M$24/(1-$M$25*(1-H36))</f>
+        <v>-1.1875148524145134</v>
+      </c>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="8"/>
+      <c r="M36" s="9"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A37" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="B37" s="11">
+        <f t="shared" ref="B37:B56" si="10">$F$23+$F$24/(1-$F$25*(1-A37))</f>
+        <v>-1.4212971870249824</v>
+      </c>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="9"/>
+      <c r="H37" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="I37" s="11">
+        <f t="shared" ref="I37:I56" si="11">$M$23+$M$24/(1-$M$25*(1-H37))</f>
+        <v>-1.2018171497734178</v>
+      </c>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="9"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A38" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="B38" s="11">
+        <f t="shared" si="10"/>
+        <v>-1.4279679394539757</v>
+      </c>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="9"/>
+      <c r="H38" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="I38" s="11">
+        <f t="shared" si="11"/>
+        <v>-1.2161661180800989</v>
+      </c>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="8"/>
+      <c r="M38" s="9"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A39" s="10">
+        <v>0.15</v>
+      </c>
+      <c r="B39" s="11">
+        <f t="shared" si="10"/>
+        <v>-1.4354143607700611</v>
+      </c>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="9"/>
+      <c r="H39" s="10">
+        <v>0.15</v>
+      </c>
+      <c r="I39" s="11">
+        <f t="shared" si="11"/>
+        <v>-1.2305619861513337</v>
+      </c>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="8"/>
+      <c r="M39" s="9"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A40" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="B40" s="11">
+        <f t="shared" si="10"/>
+        <v>-1.4437800933597373</v>
+      </c>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="9"/>
+      <c r="H40" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="I40" s="11">
+        <f t="shared" si="11"/>
+        <v>-1.245004984302132</v>
+      </c>
+      <c r="J40" s="8"/>
+      <c r="K40" s="8"/>
+      <c r="L40" s="8"/>
+      <c r="M40" s="9"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A41" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="B41" s="11">
+        <f t="shared" si="10"/>
+        <v>-1.4532465802375287</v>
+      </c>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="9"/>
+      <c r="H41" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="I41" s="11">
+        <f t="shared" si="11"/>
+        <v>-1.259495344358009</v>
+      </c>
+      <c r="J41" s="8"/>
+      <c r="K41" s="8"/>
+      <c r="L41" s="8"/>
+      <c r="M41" s="9"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A42" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="B42" s="11">
+        <f t="shared" si="10"/>
+        <v>-1.4640463751262769</v>
+      </c>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="9"/>
+      <c r="H42" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="I42" s="11">
+        <f t="shared" si="11"/>
+        <v>-1.2740332996673986</v>
+      </c>
+      <c r="J42" s="8"/>
+      <c r="K42" s="8"/>
+      <c r="L42" s="8"/>
+      <c r="M42" s="9"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A43" s="10">
+        <v>0.35</v>
+      </c>
+      <c r="B43" s="11">
+        <f t="shared" si="10"/>
+        <v>-1.4764825025739261</v>
+      </c>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="9"/>
+      <c r="H43" s="10">
+        <v>0.35</v>
+      </c>
+      <c r="I43" s="11">
+        <f t="shared" si="11"/>
+        <v>-1.2886190851141786</v>
+      </c>
+      <c r="J43" s="8"/>
+      <c r="K43" s="8"/>
+      <c r="L43" s="8"/>
+      <c r="M43" s="9"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A44" s="10">
+        <v>0.4</v>
+      </c>
+      <c r="B44" s="11">
+        <f t="shared" si="10"/>
+        <v>-1.4909573394392228</v>
+      </c>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="9"/>
+      <c r="H44" s="10">
+        <v>0.4</v>
+      </c>
+      <c r="I44" s="11">
+        <f t="shared" si="11"/>
+        <v>-1.3032529371303125</v>
+      </c>
+      <c r="J44" s="8"/>
+      <c r="K44" s="8"/>
+      <c r="L44" s="8"/>
+      <c r="M44" s="9"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A45" s="10">
+        <v>0.45</v>
+      </c>
+      <c r="B45" s="11">
+        <f t="shared" si="10"/>
+        <v>-1.508016968601894</v>
+      </c>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="9"/>
+      <c r="H45" s="10">
+        <v>0.45</v>
+      </c>
+      <c r="I45" s="11">
+        <f t="shared" si="11"/>
+        <v>-1.3179350937086314</v>
+      </c>
+      <c r="J45" s="8"/>
+      <c r="K45" s="8"/>
+      <c r="L45" s="8"/>
+      <c r="M45" s="9"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A46" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="B46" s="11">
+        <f t="shared" si="10"/>
+        <v>-1.5284216230905789</v>
+      </c>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="9"/>
+      <c r="H46" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="I46" s="11">
+        <f t="shared" si="11"/>
+        <v>-1.3326657944157363</v>
+      </c>
+      <c r="J46" s="8"/>
+      <c r="K46" s="8"/>
+      <c r="L46" s="8"/>
+      <c r="M46" s="9"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A47" s="10">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="B47" s="11">
+        <f t="shared" si="10"/>
+        <v>-1.5532620720333261</v>
+      </c>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="9"/>
+      <c r="H47" s="10">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="I47" s="11">
+        <f t="shared" si="11"/>
+        <v>-1.347445280405025</v>
+      </c>
+      <c r="J47" s="8"/>
+      <c r="K47" s="8"/>
+      <c r="L47" s="8"/>
+      <c r="M47" s="9"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A48" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="B48" s="11">
+        <f t="shared" si="10"/>
+        <v>-1.58416116705967</v>
+      </c>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="9"/>
+      <c r="H48" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="I48" s="11">
+        <f t="shared" si="11"/>
+        <v>-1.3622737944298509</v>
+      </c>
+      <c r="J48" s="8"/>
+      <c r="K48" s="8"/>
+      <c r="L48" s="8"/>
+      <c r="M48" s="9"/>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A49" s="10">
+        <v>0.65</v>
+      </c>
+      <c r="B49" s="11">
+        <f t="shared" si="10"/>
+        <v>-1.623643344037776</v>
+      </c>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="9"/>
+      <c r="H49" s="10">
+        <v>0.65</v>
+      </c>
+      <c r="I49" s="11">
+        <f t="shared" si="11"/>
+        <v>-1.3771515808568244</v>
+      </c>
+      <c r="J49" s="8"/>
+      <c r="K49" s="8"/>
+      <c r="L49" s="8"/>
+      <c r="M49" s="9"/>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A50" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="B50" s="11">
+        <f t="shared" si="10"/>
+        <v>-1.6758617071378517</v>
+      </c>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="9"/>
+      <c r="H50" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="I50" s="11">
+        <f t="shared" si="11"/>
+        <v>-1.3920788856792177</v>
+      </c>
+      <c r="J50" s="8"/>
+      <c r="K50" s="8"/>
+      <c r="L50" s="8"/>
+      <c r="M50" s="9"/>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A51" s="10">
+        <v>0.75</v>
+      </c>
+      <c r="B51" s="11">
+        <f t="shared" si="10"/>
+        <v>-1.7481640560456491</v>
+      </c>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="9"/>
+      <c r="H51" s="10">
+        <v>0.75</v>
+      </c>
+      <c r="I51" s="11">
+        <f t="shared" si="11"/>
+        <v>-1.4070559565305425</v>
+      </c>
+      <c r="J51" s="8"/>
+      <c r="K51" s="8"/>
+      <c r="L51" s="8"/>
+      <c r="M51" s="9"/>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A52" s="10">
+        <v>0.8</v>
+      </c>
+      <c r="B52" s="11">
+        <f t="shared" si="10"/>
+        <v>-1.8548960949095401</v>
+      </c>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="9"/>
+      <c r="H52" s="10">
+        <v>0.8</v>
+      </c>
+      <c r="I52" s="11">
+        <f t="shared" si="11"/>
+        <v>-1.4220830426982252</v>
+      </c>
+      <c r="J52" s="8"/>
+      <c r="K52" s="8"/>
+      <c r="L52" s="8"/>
+      <c r="M52" s="9"/>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A53" s="10">
+        <v>0.85</v>
+      </c>
+      <c r="B53" s="11">
+        <f t="shared" si="10"/>
+        <v>-2.0283356580633631</v>
+      </c>
+      <c r="C53" s="8"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="9"/>
+      <c r="H53" s="10">
+        <v>0.85</v>
+      </c>
+      <c r="I53" s="11">
+        <f t="shared" si="11"/>
+        <v>-1.4371603951374547</v>
+      </c>
+      <c r="J53" s="8"/>
+      <c r="K53" s="8"/>
+      <c r="L53" s="8"/>
+      <c r="M53" s="9"/>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A54" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="B54" s="11">
+        <f t="shared" si="10"/>
+        <v>-2.3594475513570252</v>
+      </c>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="9"/>
+      <c r="H54" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="I54" s="11">
+        <f t="shared" si="11"/>
+        <v>-1.4522882664851418</v>
+      </c>
+      <c r="J54" s="8"/>
+      <c r="K54" s="8"/>
+      <c r="L54" s="8"/>
+      <c r="M54" s="9"/>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A55" s="10">
+        <v>0.95</v>
+      </c>
+      <c r="B55" s="11">
+        <f t="shared" si="10"/>
+        <v>-3.2424126001401228</v>
+      </c>
+      <c r="C55" s="8"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="9"/>
+      <c r="H55" s="10">
+        <v>0.95</v>
+      </c>
+      <c r="I55" s="11">
+        <f t="shared" si="11"/>
+        <v>-1.4674669110740348</v>
+      </c>
+      <c r="J55" s="8"/>
+      <c r="K55" s="8"/>
+      <c r="L55" s="8"/>
+      <c r="M55" s="9"/>
+    </row>
+    <row r="56" spans="1:13" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="12">
+        <v>1</v>
+      </c>
+      <c r="B56" s="13">
+        <f t="shared" si="10"/>
+        <v>-12.955028136754212</v>
+      </c>
+      <c r="C56" s="14"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="15"/>
+      <c r="H56" s="12">
+        <v>1</v>
+      </c>
+      <c r="I56" s="13">
+        <f t="shared" si="11"/>
+        <v>-1.4826965849469724</v>
+      </c>
+      <c r="J56" s="14"/>
+      <c r="K56" s="14"/>
+      <c r="L56" s="14"/>
+      <c r="M56" s="15"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>